--- a/simpleWeatherSimply.xlsx
+++ b/simpleWeatherSimply.xlsx
@@ -1859,17 +1859,17 @@
     <row r="2">
       <c r="A2" s="77" t="inlineStr">
         <is>
-          <t>2021-12-01 15:00 mer</t>
-        </is>
-      </c>
-      <c r="B2" s="92" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="81" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" s="81" t="n">
-        <v>12</v>
+          <t>2021-12-05 15:00 dom</t>
+        </is>
+      </c>
+      <c r="B2" s="81" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" s="86" t="n">
+        <v>78</v>
+      </c>
+      <c r="D2" s="94" t="n">
+        <v>28</v>
       </c>
       <c r="E2" s="77" t="inlineStr">
         <is>
@@ -1878,31 +1878,31 @@
       </c>
       <c r="F2" s="82" t="inlineStr"/>
       <c r="G2" s="82" t="inlineStr"/>
-      <c r="H2" s="82" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I2" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H2" s="84" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I2" s="90" t="inlineStr">
+        <is>
+          <t>47.3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="77" t="inlineStr">
         <is>
-          <t>2021-12-01 18:00 mer</t>
-        </is>
-      </c>
-      <c r="B3" s="92" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" s="83" t="n">
-        <v>69</v>
-      </c>
-      <c r="D3" s="93" t="n">
-        <v>9</v>
+          <t>2021-12-05 18:00 dom</t>
+        </is>
+      </c>
+      <c r="B3" s="83" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" s="86" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" s="94" t="n">
+        <v>22</v>
       </c>
       <c r="E3" s="77" t="inlineStr">
         <is>
@@ -1911,31 +1911,31 @@
       </c>
       <c r="F3" s="82" t="inlineStr"/>
       <c r="G3" s="82" t="inlineStr"/>
-      <c r="H3" s="82" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="I3" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H3" s="84" t="inlineStr">
+        <is>
+          <t>19.7</t>
+        </is>
+      </c>
+      <c r="I3" s="91" t="inlineStr">
+        <is>
+          <t>24.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="77" t="inlineStr">
         <is>
-          <t>2021-12-01 21:00 mer</t>
-        </is>
-      </c>
-      <c r="B4" s="92" t="n">
-        <v>9</v>
+          <t>2021-12-05 21:00 dom</t>
+        </is>
+      </c>
+      <c r="B4" s="83" t="n">
+        <v>12</v>
       </c>
       <c r="C4" s="86" t="n">
-        <v>72</v>
-      </c>
-      <c r="D4" s="93" t="n">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="D4" s="94" t="n">
+        <v>20</v>
       </c>
       <c r="E4" s="77" t="inlineStr">
         <is>
@@ -1944,28 +1944,28 @@
       </c>
       <c r="F4" s="82" t="inlineStr"/>
       <c r="G4" s="82" t="inlineStr"/>
-      <c r="H4" s="82" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="I4" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H4" s="88" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="89" t="inlineStr">
+        <is>
+          <t>80.9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="77" t="inlineStr">
         <is>
-          <t>2021-12-02 00:00 gio</t>
+          <t>2021-12-06 00:00 lun</t>
         </is>
       </c>
       <c r="B5" s="92" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="83" t="n">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="86" t="n">
+        <v>88</v>
       </c>
       <c r="D5" s="93" t="n">
         <v>9</v>
@@ -1977,130 +1977,130 @@
       </c>
       <c r="F5" s="82" t="inlineStr"/>
       <c r="G5" s="82" t="inlineStr"/>
-      <c r="H5" s="82" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="I5" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H5" s="88" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="I5" s="85" t="inlineStr">
+        <is>
+          <t>63.7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="77" t="inlineStr">
         <is>
-          <t>2021-12-02 03:00 gio</t>
+          <t>2021-12-06 03:00 lun</t>
         </is>
       </c>
       <c r="B6" s="92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="86" t="n">
-        <v>71</v>
-      </c>
-      <c r="D6" s="81" t="n">
-        <v>14</v>
+        <v>83</v>
+      </c>
+      <c r="D6" s="93" t="n">
+        <v>8</v>
       </c>
       <c r="E6" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F6" s="82" t="inlineStr"/>
+      <c r="F6" s="83" t="inlineStr"/>
       <c r="G6" s="82" t="inlineStr"/>
-      <c r="H6" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I6" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H6" s="91" t="inlineStr">
+        <is>
+          <t>27.8</t>
+        </is>
+      </c>
+      <c r="I6" s="89" t="inlineStr">
+        <is>
+          <t>96.7</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="77" t="inlineStr">
         <is>
-          <t>2021-12-02 06:00 gio</t>
+          <t>2021-12-06 06:00 lun</t>
         </is>
       </c>
       <c r="B7" s="92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="86" t="n">
-        <v>86</v>
-      </c>
-      <c r="D7" s="81" t="n">
-        <v>16</v>
+        <v>89</v>
+      </c>
+      <c r="D7" s="87" t="n">
+        <v>3</v>
       </c>
       <c r="E7" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F7" s="82" t="inlineStr"/>
+      <c r="F7" s="83" t="inlineStr"/>
       <c r="G7" s="82" t="inlineStr"/>
-      <c r="H7" s="82" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="I7" s="82" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="H7" s="85" t="inlineStr">
+        <is>
+          <t>63.4</t>
+        </is>
+      </c>
+      <c r="I7" s="89" t="inlineStr">
+        <is>
+          <t>98.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="77" t="inlineStr">
         <is>
-          <t>2021-12-02 09:00 gio</t>
-        </is>
-      </c>
-      <c r="B8" s="81" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" s="83" t="n">
-        <v>69</v>
-      </c>
-      <c r="D8" s="94" t="n">
-        <v>26</v>
+          <t>2021-12-06 09:00 lun</t>
+        </is>
+      </c>
+      <c r="B8" s="83" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D8" s="81" t="n">
+        <v>13</v>
       </c>
       <c r="E8" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F8" s="82" t="inlineStr"/>
+      <c r="F8" s="83" t="inlineStr"/>
       <c r="G8" s="82" t="inlineStr"/>
-      <c r="H8" s="82" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="I8" s="82" t="inlineStr">
-        <is>
-          <t>2.7</t>
+      <c r="H8" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I8" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="77" t="inlineStr">
         <is>
-          <t>2021-12-02 12:00 gio</t>
-        </is>
-      </c>
-      <c r="B9" s="81" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" s="83" t="n">
-        <v>61</v>
-      </c>
-      <c r="D9" s="95" t="n">
-        <v>30</v>
+          <t>2021-12-06 12:00 lun</t>
+        </is>
+      </c>
+      <c r="B9" s="83" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="86" t="n">
+        <v>81</v>
+      </c>
+      <c r="D9" s="94" t="n">
+        <v>21</v>
       </c>
       <c r="E9" s="77" t="inlineStr">
         <is>
@@ -2109,31 +2109,31 @@
       </c>
       <c r="F9" s="82" t="inlineStr"/>
       <c r="G9" s="82" t="inlineStr"/>
-      <c r="H9" s="82" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="I9" s="82" t="inlineStr">
-        <is>
-          <t>1.4</t>
+      <c r="H9" s="89" t="inlineStr">
+        <is>
+          <t>97.7</t>
+        </is>
+      </c>
+      <c r="I9" s="89" t="inlineStr">
+        <is>
+          <t>99.5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="77" t="inlineStr">
         <is>
-          <t>2021-12-02 15:00 gio</t>
-        </is>
-      </c>
-      <c r="B10" s="81" t="n">
-        <v>14</v>
+          <t>2021-12-06 15:00 lun</t>
+        </is>
+      </c>
+      <c r="B10" s="92" t="n">
+        <v>10</v>
       </c>
       <c r="C10" s="86" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="94" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" s="77" t="inlineStr">
         <is>
@@ -2142,31 +2142,31 @@
       </c>
       <c r="F10" s="82" t="inlineStr"/>
       <c r="G10" s="82" t="inlineStr"/>
-      <c r="H10" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I10" s="82" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H10" s="91" t="inlineStr">
+        <is>
+          <t>23.5</t>
+        </is>
+      </c>
+      <c r="I10" s="90" t="inlineStr">
+        <is>
+          <t>35.7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="77" t="inlineStr">
         <is>
-          <t>2021-12-02 18:00 gio</t>
-        </is>
-      </c>
-      <c r="B11" s="81" t="n">
-        <v>14</v>
+          <t>2021-12-06 18:00 lun</t>
+        </is>
+      </c>
+      <c r="B11" s="92" t="n">
+        <v>8</v>
       </c>
       <c r="C11" s="86" t="n">
-        <v>77</v>
-      </c>
-      <c r="D11" s="95" t="n">
-        <v>34</v>
+        <v>83</v>
+      </c>
+      <c r="D11" s="81" t="n">
+        <v>18</v>
       </c>
       <c r="E11" s="77" t="inlineStr">
         <is>
@@ -2175,31 +2175,31 @@
       </c>
       <c r="F11" s="82" t="inlineStr"/>
       <c r="G11" s="82" t="inlineStr"/>
-      <c r="H11" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H11" s="84" t="inlineStr">
+        <is>
+          <t>17.7</t>
+        </is>
+      </c>
+      <c r="I11" s="85" t="inlineStr">
+        <is>
+          <t>67.4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="77" t="inlineStr">
         <is>
-          <t>2021-12-02 21:00 gio</t>
-        </is>
-      </c>
-      <c r="B12" s="81" t="n">
-        <v>15</v>
+          <t>2021-12-06 21:00 lun</t>
+        </is>
+      </c>
+      <c r="B12" s="92" t="n">
+        <v>8</v>
       </c>
       <c r="C12" s="86" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="95" t="n">
-        <v>38</v>
+        <v>85</v>
+      </c>
+      <c r="D12" s="81" t="n">
+        <v>13</v>
       </c>
       <c r="E12" s="77" t="inlineStr">
         <is>
@@ -2208,97 +2208,97 @@
       </c>
       <c r="F12" s="82" t="inlineStr"/>
       <c r="G12" s="82" t="inlineStr"/>
-      <c r="H12" s="82" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="I12" s="84" t="inlineStr">
-        <is>
-          <t>21.3</t>
+      <c r="H12" s="84" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I12" s="85" t="inlineStr">
+        <is>
+          <t>68.3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="77" t="inlineStr">
         <is>
-          <t>2021-12-03 00:00 ven</t>
-        </is>
-      </c>
-      <c r="B13" s="81" t="n">
-        <v>14</v>
+          <t>2021-12-07 00:00 mar</t>
+        </is>
+      </c>
+      <c r="B13" s="92" t="n">
+        <v>9</v>
       </c>
       <c r="C13" s="86" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" s="95" t="n">
-        <v>38</v>
+        <v>87</v>
+      </c>
+      <c r="D13" s="81" t="n">
+        <v>18</v>
       </c>
       <c r="E13" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F13" s="82" t="inlineStr"/>
+      <c r="F13" s="83" t="inlineStr"/>
       <c r="G13" s="82" t="inlineStr"/>
-      <c r="H13" s="82" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="I13" s="84" t="inlineStr">
-        <is>
-          <t>14.1</t>
+      <c r="H13" s="90" t="inlineStr">
+        <is>
+          <t>30.6</t>
+        </is>
+      </c>
+      <c r="I13" s="85" t="inlineStr">
+        <is>
+          <t>68.1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="77" t="inlineStr">
         <is>
-          <t>2021-12-03 03:00 ven</t>
-        </is>
-      </c>
-      <c r="B14" s="81" t="n">
-        <v>14</v>
+          <t>2021-12-07 03:00 mar</t>
+        </is>
+      </c>
+      <c r="B14" s="92" t="n">
+        <v>8</v>
       </c>
       <c r="C14" s="86" t="n">
-        <v>76</v>
-      </c>
-      <c r="D14" s="95" t="n">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="D14" s="81" t="n">
+        <v>15</v>
       </c>
       <c r="E14" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F14" s="82" t="inlineStr"/>
+      <c r="F14" s="83" t="inlineStr"/>
       <c r="G14" s="82" t="inlineStr"/>
-      <c r="H14" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I14" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H14" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I14" s="82" t="inlineStr">
+        <is>
+          <t>2.9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="77" t="inlineStr">
         <is>
-          <t>2021-12-03 06:00 ven</t>
-        </is>
-      </c>
-      <c r="B15" s="81" t="n">
-        <v>14</v>
+          <t>2021-12-07 06:00 mar</t>
+        </is>
+      </c>
+      <c r="B15" s="92" t="n">
+        <v>7</v>
       </c>
       <c r="C15" s="86" t="n">
-        <v>75</v>
-      </c>
-      <c r="D15" s="95" t="n">
-        <v>32</v>
+        <v>92</v>
+      </c>
+      <c r="D15" s="81" t="n">
+        <v>19</v>
       </c>
       <c r="E15" s="77" t="inlineStr">
         <is>
@@ -2307,97 +2307,97 @@
       </c>
       <c r="F15" s="82" t="inlineStr"/>
       <c r="G15" s="82" t="inlineStr"/>
-      <c r="H15" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I15" s="82" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H15" s="85" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="I15" s="88" t="inlineStr">
+        <is>
+          <t>7.4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="77" t="inlineStr">
         <is>
-          <t>2021-12-03 09:00 ven</t>
-        </is>
-      </c>
-      <c r="B16" s="81" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="83" t="n">
-        <v>70</v>
+          <t>2021-12-07 09:00 mar</t>
+        </is>
+      </c>
+      <c r="B16" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="86" t="n">
+        <v>81</v>
       </c>
       <c r="D16" s="95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F16" s="82" t="inlineStr"/>
+      <c r="F16" s="83" t="inlineStr"/>
       <c r="G16" s="82" t="inlineStr"/>
-      <c r="H16" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" s="85" t="inlineStr">
-        <is>
-          <t>66.8</t>
+      <c r="H16" s="84" t="inlineStr">
+        <is>
+          <t>15.1</t>
+        </is>
+      </c>
+      <c r="I16" s="90" t="inlineStr">
+        <is>
+          <t>40.5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="77" t="inlineStr">
         <is>
-          <t>2021-12-03 12:00 ven</t>
-        </is>
-      </c>
-      <c r="B17" s="81" t="n">
-        <v>16</v>
+          <t>2021-12-07 12:00 mar</t>
+        </is>
+      </c>
+      <c r="B17" s="83" t="n">
+        <v>11</v>
       </c>
       <c r="C17" s="83" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D17" s="95" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F17" s="83" t="inlineStr"/>
+      <c r="F17" s="82" t="inlineStr"/>
       <c r="G17" s="82" t="inlineStr"/>
-      <c r="H17" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I17" s="89" t="inlineStr">
-        <is>
-          <t>83.4</t>
+      <c r="H17" s="90" t="inlineStr">
+        <is>
+          <t>56.7</t>
+        </is>
+      </c>
+      <c r="I17" s="91" t="inlineStr">
+        <is>
+          <t>25.7</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="77" t="inlineStr">
         <is>
-          <t>2021-12-03 15:00 ven</t>
-        </is>
-      </c>
-      <c r="B18" s="81" t="n">
-        <v>14</v>
-      </c>
-      <c r="C18" s="86" t="n">
-        <v>73</v>
-      </c>
-      <c r="D18" s="94" t="n">
-        <v>26</v>
+          <t>2021-12-07 15:00 mar</t>
+        </is>
+      </c>
+      <c r="B18" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" s="83" t="n">
+        <v>62</v>
+      </c>
+      <c r="D18" s="95" t="n">
+        <v>31</v>
       </c>
       <c r="E18" s="77" t="inlineStr">
         <is>
@@ -2406,97 +2406,97 @@
       </c>
       <c r="F18" s="82" t="inlineStr"/>
       <c r="G18" s="82" t="inlineStr"/>
-      <c r="H18" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I18" s="89" t="inlineStr">
-        <is>
-          <t>94.8</t>
+      <c r="H18" s="90" t="inlineStr">
+        <is>
+          <t>46.8</t>
+        </is>
+      </c>
+      <c r="I18" s="82" t="inlineStr">
+        <is>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="77" t="inlineStr">
         <is>
-          <t>2021-12-03 18:00 ven</t>
-        </is>
-      </c>
-      <c r="B19" s="83" t="n">
-        <v>13</v>
-      </c>
-      <c r="C19" s="86" t="n">
-        <v>76</v>
-      </c>
-      <c r="D19" s="81" t="n">
-        <v>18</v>
+          <t>2021-12-07 18:00 mar</t>
+        </is>
+      </c>
+      <c r="B19" s="92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="83" t="n">
+        <v>61</v>
+      </c>
+      <c r="D19" s="95" t="n">
+        <v>31</v>
       </c>
       <c r="E19" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F19" s="83" t="inlineStr"/>
+      <c r="F19" s="82" t="inlineStr"/>
       <c r="G19" s="82" t="inlineStr"/>
-      <c r="H19" s="91" t="inlineStr">
-        <is>
-          <t>23.6</t>
-        </is>
-      </c>
-      <c r="I19" s="89" t="inlineStr">
-        <is>
-          <t>96.9</t>
+      <c r="H19" s="90" t="inlineStr">
+        <is>
+          <t>45.6</t>
+        </is>
+      </c>
+      <c r="I19" s="82" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="77" t="inlineStr">
         <is>
-          <t>2021-12-03 21:00 ven</t>
-        </is>
-      </c>
-      <c r="B20" s="83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" s="86" t="n">
-        <v>86</v>
-      </c>
-      <c r="D20" s="93" t="n">
-        <v>11</v>
+          <t>2021-12-07 21:00 mar</t>
+        </is>
+      </c>
+      <c r="B20" s="92" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" s="83" t="n">
+        <v>65</v>
+      </c>
+      <c r="D20" s="94" t="n">
+        <v>25</v>
       </c>
       <c r="E20" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F20" s="83" t="inlineStr"/>
+      <c r="F20" s="82" t="inlineStr"/>
       <c r="G20" s="82" t="inlineStr"/>
-      <c r="H20" s="89" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I20" s="89" t="inlineStr">
-        <is>
-          <t>97.2</t>
+      <c r="H20" s="88" t="inlineStr">
+        <is>
+          <t>5.8</t>
+        </is>
+      </c>
+      <c r="I20" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="77" t="inlineStr">
         <is>
-          <t>2021-12-04 00:00 sab</t>
-        </is>
-      </c>
-      <c r="B21" s="83" t="n">
-        <v>11</v>
-      </c>
-      <c r="C21" s="86" t="n">
-        <v>86</v>
-      </c>
-      <c r="D21" s="81" t="n">
-        <v>18</v>
+          <t>2021-12-08 00:00 mer</t>
+        </is>
+      </c>
+      <c r="B21" s="92" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="83" t="n">
+        <v>70</v>
+      </c>
+      <c r="D21" s="94" t="n">
+        <v>23</v>
       </c>
       <c r="E21" s="77" t="inlineStr">
         <is>
@@ -2505,28 +2505,28 @@
       </c>
       <c r="F21" s="82" t="inlineStr"/>
       <c r="G21" s="82" t="inlineStr"/>
-      <c r="H21" s="89" t="inlineStr">
-        <is>
-          <t>94.4</t>
-        </is>
-      </c>
-      <c r="I21" s="85" t="inlineStr">
-        <is>
-          <t>69</t>
+      <c r="H21" s="84" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I21" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="77" t="inlineStr">
         <is>
-          <t>2021-12-04 03:00 sab</t>
-        </is>
-      </c>
-      <c r="B22" s="83" t="n">
-        <v>11</v>
-      </c>
-      <c r="C22" s="86" t="n">
-        <v>88</v>
+          <t>2021-12-08 03:00 mer</t>
+        </is>
+      </c>
+      <c r="B22" s="92" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" s="83" t="n">
+        <v>70</v>
       </c>
       <c r="D22" s="81" t="n">
         <v>19</v>
@@ -2536,33 +2536,33 @@
           <t>1</t>
         </is>
       </c>
-      <c r="F22" s="83" t="inlineStr"/>
+      <c r="F22" s="82" t="inlineStr"/>
       <c r="G22" s="82" t="inlineStr"/>
-      <c r="H22" s="90" t="inlineStr">
-        <is>
-          <t>46.9</t>
-        </is>
-      </c>
-      <c r="I22" s="85" t="inlineStr">
-        <is>
-          <t>65.3</t>
+      <c r="H22" s="82" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="I22" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="77" t="inlineStr">
         <is>
-          <t>2021-12-04 06:00 sab</t>
+          <t>2021-12-08 06:00 mer</t>
         </is>
       </c>
       <c r="B23" s="92" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C23" s="86" t="n">
-        <v>87</v>
-      </c>
-      <c r="D23" s="95" t="n">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="D23" s="81" t="n">
+        <v>12</v>
       </c>
       <c r="E23" s="77" t="inlineStr">
         <is>
@@ -2571,31 +2571,31 @@
       </c>
       <c r="F23" s="82" t="inlineStr"/>
       <c r="G23" s="82" t="inlineStr"/>
-      <c r="H23" s="85" t="inlineStr">
-        <is>
-          <t>70.6</t>
-        </is>
-      </c>
-      <c r="I23" s="85" t="inlineStr">
-        <is>
-          <t>65.6</t>
+      <c r="H23" s="82" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="I23" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="77" t="inlineStr">
         <is>
-          <t>2021-12-04 09:00 sab</t>
-        </is>
-      </c>
-      <c r="B24" s="83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C24" s="86" t="n">
-        <v>76</v>
-      </c>
-      <c r="D24" s="95" t="n">
-        <v>35</v>
+          <t>2021-12-08 09:00 mer</t>
+        </is>
+      </c>
+      <c r="B24" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="81" t="n">
+        <v>60</v>
+      </c>
+      <c r="D24" s="93" t="n">
+        <v>11</v>
       </c>
       <c r="E24" s="77" t="inlineStr">
         <is>
@@ -2604,31 +2604,31 @@
       </c>
       <c r="F24" s="82" t="inlineStr"/>
       <c r="G24" s="82" t="inlineStr"/>
-      <c r="H24" s="85" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="I24" s="90" t="inlineStr">
-        <is>
-          <t>59.8</t>
+      <c r="H24" s="82" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="I24" s="88" t="inlineStr">
+        <is>
+          <t>9.6</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="77" t="inlineStr">
         <is>
-          <t>2021-12-04 12:00 sab</t>
+          <t>2021-12-08 12:00 mer</t>
         </is>
       </c>
       <c r="B25" s="83" t="n">
-        <v>13</v>
-      </c>
-      <c r="C25" s="83" t="n">
-        <v>66</v>
-      </c>
-      <c r="D25" s="94" t="n">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C25" s="81" t="n">
+        <v>42</v>
+      </c>
+      <c r="D25" s="93" t="n">
+        <v>11</v>
       </c>
       <c r="E25" s="77" t="inlineStr">
         <is>
@@ -2639,29 +2639,29 @@
       <c r="G25" s="82" t="inlineStr"/>
       <c r="H25" s="90" t="inlineStr">
         <is>
-          <t>57.6</t>
-        </is>
-      </c>
-      <c r="I25" s="91" t="inlineStr">
-        <is>
-          <t>29.9</t>
+          <t>36.8</t>
+        </is>
+      </c>
+      <c r="I25" s="88" t="inlineStr">
+        <is>
+          <t>8.1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="77" t="inlineStr">
         <is>
-          <t>2021-12-04 15:00 sab</t>
-        </is>
-      </c>
-      <c r="B26" s="83" t="n">
-        <v>11</v>
+          <t>2021-12-08 15:00 mer</t>
+        </is>
+      </c>
+      <c r="B26" s="92" t="n">
+        <v>10</v>
       </c>
       <c r="C26" s="83" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D26" s="81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26" s="77" t="inlineStr">
         <is>
@@ -2670,31 +2670,31 @@
       </c>
       <c r="F26" s="82" t="inlineStr"/>
       <c r="G26" s="82" t="inlineStr"/>
-      <c r="H26" s="90" t="inlineStr">
-        <is>
-          <t>30.7</t>
-        </is>
-      </c>
-      <c r="I26" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H26" s="89" t="inlineStr">
+        <is>
+          <t>88.2</t>
+        </is>
+      </c>
+      <c r="I26" s="85" t="inlineStr">
+        <is>
+          <t>64.2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="77" t="inlineStr">
         <is>
-          <t>2021-12-04 18:00 sab</t>
-        </is>
-      </c>
-      <c r="B27" s="92" t="n">
-        <v>10</v>
+          <t>2021-12-08 18:00 mer</t>
+        </is>
+      </c>
+      <c r="B27" s="83" t="n">
+        <v>12</v>
       </c>
       <c r="C27" s="86" t="n">
-        <v>78</v>
-      </c>
-      <c r="D27" s="93" t="n">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="D27" s="94" t="n">
+        <v>21</v>
       </c>
       <c r="E27" s="77" t="inlineStr">
         <is>
@@ -2703,31 +2703,31 @@
       </c>
       <c r="F27" s="82" t="inlineStr"/>
       <c r="G27" s="82" t="inlineStr"/>
-      <c r="H27" s="84" t="inlineStr">
-        <is>
-          <t>15.4</t>
-        </is>
-      </c>
-      <c r="I27" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H27" s="89" t="inlineStr">
+        <is>
+          <t>93.9</t>
+        </is>
+      </c>
+      <c r="I27" s="90" t="inlineStr">
+        <is>
+          <t>34.6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="77" t="inlineStr">
         <is>
-          <t>2021-12-04 21:00 sab</t>
-        </is>
-      </c>
-      <c r="B28" s="92" t="n">
-        <v>9</v>
+          <t>2021-12-08 21:00 mer</t>
+        </is>
+      </c>
+      <c r="B28" s="83" t="n">
+        <v>12</v>
       </c>
       <c r="C28" s="86" t="n">
-        <v>80</v>
-      </c>
-      <c r="D28" s="93" t="n">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="D28" s="94" t="n">
+        <v>24</v>
       </c>
       <c r="E28" s="77" t="inlineStr">
         <is>
@@ -2736,31 +2736,31 @@
       </c>
       <c r="F28" s="82" t="inlineStr"/>
       <c r="G28" s="82" t="inlineStr"/>
-      <c r="H28" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I28" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H28" s="90" t="inlineStr">
+        <is>
+          <t>58.1</t>
+        </is>
+      </c>
+      <c r="I28" s="84" t="inlineStr">
+        <is>
+          <t>16.7</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 00:00 dom</t>
-        </is>
-      </c>
-      <c r="B29" s="92" t="n">
-        <v>10</v>
+          <t>2021-12-09 00:00 gio</t>
+        </is>
+      </c>
+      <c r="B29" s="83" t="n">
+        <v>13</v>
       </c>
       <c r="C29" s="86" t="n">
-        <v>78</v>
-      </c>
-      <c r="D29" s="81" t="n">
-        <v>14</v>
+        <v>82</v>
+      </c>
+      <c r="D29" s="94" t="n">
+        <v>24</v>
       </c>
       <c r="E29" s="77" t="inlineStr">
         <is>
@@ -2769,31 +2769,31 @@
       </c>
       <c r="F29" s="82" t="inlineStr"/>
       <c r="G29" s="82" t="inlineStr"/>
-      <c r="H29" s="88" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="I29" s="82" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="H29" s="90" t="inlineStr">
+        <is>
+          <t>30.5</t>
+        </is>
+      </c>
+      <c r="I29" s="88" t="inlineStr">
+        <is>
+          <t>9.2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 03:00 dom</t>
-        </is>
-      </c>
-      <c r="B30" s="92" t="n">
-        <v>9</v>
+          <t>2021-12-09 03:00 gio</t>
+        </is>
+      </c>
+      <c r="B30" s="81" t="n">
+        <v>14</v>
       </c>
       <c r="C30" s="86" t="n">
-        <v>79</v>
-      </c>
-      <c r="D30" s="81" t="n">
-        <v>15</v>
+        <v>88</v>
+      </c>
+      <c r="D30" s="95" t="n">
+        <v>32</v>
       </c>
       <c r="E30" s="77" t="inlineStr">
         <is>
@@ -2802,31 +2802,31 @@
       </c>
       <c r="F30" s="82" t="inlineStr"/>
       <c r="G30" s="82" t="inlineStr"/>
-      <c r="H30" s="90" t="inlineStr">
-        <is>
-          <t>36.3</t>
-        </is>
-      </c>
-      <c r="I30" s="82" t="inlineStr">
-        <is>
-          <t>1.7</t>
+      <c r="H30" s="84" t="inlineStr">
+        <is>
+          <t>16.3</t>
+        </is>
+      </c>
+      <c r="I30" s="84" t="inlineStr">
+        <is>
+          <t>16.5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 06:00 dom</t>
-        </is>
-      </c>
-      <c r="B31" s="92" t="n">
-        <v>10</v>
+          <t>2021-12-09 06:00 gio</t>
+        </is>
+      </c>
+      <c r="B31" s="81" t="n">
+        <v>14</v>
       </c>
       <c r="C31" s="86" t="n">
-        <v>81</v>
-      </c>
-      <c r="D31" s="81" t="n">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="D31" s="97" t="n">
+        <v>42</v>
       </c>
       <c r="E31" s="77" t="inlineStr">
         <is>
@@ -2837,62 +2837,62 @@
       <c r="G31" s="82" t="inlineStr"/>
       <c r="H31" s="84" t="inlineStr">
         <is>
-          <t>20.9</t>
-        </is>
-      </c>
-      <c r="I31" s="82" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>15.5</t>
+        </is>
+      </c>
+      <c r="I31" s="88" t="inlineStr">
+        <is>
+          <t>8.2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 09:00 dom</t>
+          <t>2021-12-09 09:00 gio</t>
         </is>
       </c>
       <c r="B32" s="81" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" s="86" t="n">
-        <v>75</v>
-      </c>
-      <c r="D32" s="94" t="n">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="D32" s="98" t="n">
+        <v>54</v>
       </c>
       <c r="E32" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F32" s="83" t="inlineStr"/>
+      <c r="F32" s="82" t="inlineStr"/>
       <c r="G32" s="82" t="inlineStr"/>
-      <c r="H32" s="88" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I32" s="88" t="inlineStr">
-        <is>
-          <t>5.6</t>
+      <c r="H32" s="82" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="I32" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 12:00 dom</t>
+          <t>2021-12-09 12:00 gio</t>
         </is>
       </c>
       <c r="B33" s="81" t="n">
         <v>16</v>
       </c>
-      <c r="C33" s="83" t="n">
-        <v>70</v>
-      </c>
-      <c r="D33" s="95" t="n">
-        <v>33</v>
+      <c r="C33" s="86" t="n">
+        <v>72</v>
+      </c>
+      <c r="D33" s="98" t="n">
+        <v>56</v>
       </c>
       <c r="E33" s="77" t="inlineStr">
         <is>
@@ -2901,130 +2901,130 @@
       </c>
       <c r="F33" s="83" t="inlineStr"/>
       <c r="G33" s="82" t="inlineStr"/>
-      <c r="H33" s="84" t="inlineStr">
-        <is>
-          <t>15.1</t>
-        </is>
-      </c>
-      <c r="I33" s="88" t="inlineStr">
-        <is>
-          <t>5.5</t>
+      <c r="H33" s="82" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="I33" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 15:00 dom</t>
-        </is>
-      </c>
-      <c r="B34" s="81" t="n">
-        <v>14</v>
-      </c>
-      <c r="C34" s="86" t="n">
-        <v>77</v>
-      </c>
-      <c r="D34" s="95" t="n">
-        <v>29</v>
+          <t>2021-12-09 15:00 gio</t>
+        </is>
+      </c>
+      <c r="B34" s="83" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" s="83" t="n">
+        <v>69</v>
+      </c>
+      <c r="D34" s="97" t="n">
+        <v>44</v>
       </c>
       <c r="E34" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F34" s="82" t="inlineStr"/>
+      <c r="F34" s="83" t="inlineStr"/>
       <c r="G34" s="82" t="inlineStr"/>
-      <c r="H34" s="90" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="I34" s="84" t="inlineStr">
-        <is>
-          <t>20.4</t>
+      <c r="H34" s="85" t="inlineStr">
+        <is>
+          <t>68.3</t>
+        </is>
+      </c>
+      <c r="I34" s="90" t="inlineStr">
+        <is>
+          <t>31.5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 18:00 dom</t>
+          <t>2021-12-09 18:00 gio</t>
         </is>
       </c>
       <c r="B35" s="83" t="n">
-        <v>13</v>
-      </c>
-      <c r="C35" s="86" t="n">
-        <v>81</v>
-      </c>
-      <c r="D35" s="94" t="n">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C35" s="83" t="n">
+        <v>62</v>
+      </c>
+      <c r="D35" s="95" t="n">
+        <v>38</v>
       </c>
       <c r="E35" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F35" s="83" t="inlineStr"/>
+      <c r="F35" s="82" t="inlineStr"/>
       <c r="G35" s="82" t="inlineStr"/>
-      <c r="H35" s="85" t="inlineStr">
-        <is>
-          <t>63</t>
+      <c r="H35" s="89" t="inlineStr">
+        <is>
+          <t>80.7</t>
         </is>
       </c>
       <c r="I35" s="90" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 21:00 dom</t>
+          <t>2021-12-09 21:00 gio</t>
         </is>
       </c>
       <c r="B36" s="83" t="n">
-        <v>13</v>
-      </c>
-      <c r="C36" s="86" t="n">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="C36" s="83" t="n">
+        <v>61</v>
       </c>
       <c r="D36" s="94" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E36" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F36" s="83" t="inlineStr"/>
+      <c r="F36" s="82" t="inlineStr"/>
       <c r="G36" s="82" t="inlineStr"/>
-      <c r="H36" s="89" t="inlineStr">
-        <is>
-          <t>99.7</t>
+      <c r="H36" s="91" t="inlineStr">
+        <is>
+          <t>29.4</t>
         </is>
       </c>
       <c r="I36" s="89" t="inlineStr">
         <is>
-          <t>99.4</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 00:00 lun</t>
+          <t>2021-12-10 00:00 ven</t>
         </is>
       </c>
       <c r="B37" s="92" t="n">
-        <v>9</v>
-      </c>
-      <c r="C37" s="86" t="n">
-        <v>80</v>
-      </c>
-      <c r="D37" s="87" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="81" t="n">
+        <v>57</v>
+      </c>
+      <c r="D37" s="94" t="n">
+        <v>23</v>
       </c>
       <c r="E37" s="77" t="inlineStr">
         <is>
@@ -3033,31 +3033,31 @@
       </c>
       <c r="F37" s="82" t="inlineStr"/>
       <c r="G37" s="82" t="inlineStr"/>
-      <c r="H37" s="89" t="inlineStr">
-        <is>
-          <t>92.9</t>
-        </is>
-      </c>
-      <c r="I37" s="85" t="inlineStr">
-        <is>
-          <t>68.1</t>
+      <c r="H37" s="84" t="inlineStr">
+        <is>
+          <t>16.9</t>
+        </is>
+      </c>
+      <c r="I37" s="89" t="inlineStr">
+        <is>
+          <t>84.2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 03:00 lun</t>
+          <t>2021-12-10 03:00 ven</t>
         </is>
       </c>
       <c r="B38" s="92" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" s="86" t="n">
-        <v>84</v>
-      </c>
-      <c r="D38" s="87" t="n">
-        <v>5</v>
+        <v>75</v>
+      </c>
+      <c r="D38" s="81" t="n">
+        <v>13</v>
       </c>
       <c r="E38" s="77" t="inlineStr">
         <is>
@@ -3066,31 +3066,31 @@
       </c>
       <c r="F38" s="83" t="inlineStr"/>
       <c r="G38" s="82" t="inlineStr"/>
-      <c r="H38" s="89" t="inlineStr">
-        <is>
-          <t>93.8</t>
+      <c r="H38" s="82" t="inlineStr">
+        <is>
+          <t>2.3</t>
         </is>
       </c>
       <c r="I38" s="90" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 06:00 lun</t>
+          <t>2021-12-10 06:00 ven</t>
         </is>
       </c>
       <c r="B39" s="92" t="n">
-        <v>9</v>
-      </c>
-      <c r="C39" s="86" t="n">
-        <v>78</v>
-      </c>
-      <c r="D39" s="93" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C39" s="83" t="n">
+        <v>67</v>
+      </c>
+      <c r="D39" s="94" t="n">
+        <v>21</v>
       </c>
       <c r="E39" s="77" t="inlineStr">
         <is>
@@ -3099,64 +3099,64 @@
       </c>
       <c r="F39" s="82" t="inlineStr"/>
       <c r="G39" s="82" t="inlineStr"/>
-      <c r="H39" s="89" t="inlineStr">
-        <is>
-          <t>81.6</t>
+      <c r="H39" s="82" t="inlineStr">
+        <is>
+          <t>4.2</t>
         </is>
       </c>
       <c r="I39" s="90" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>50.4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 09:00 lun</t>
+          <t>2021-12-10 09:00 ven</t>
         </is>
       </c>
       <c r="B40" s="83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C40" s="86" t="n">
-        <v>74</v>
-      </c>
-      <c r="D40" s="81" t="n">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C40" s="81" t="n">
+        <v>58</v>
+      </c>
+      <c r="D40" s="94" t="n">
+        <v>24</v>
       </c>
       <c r="E40" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F40" s="83" t="inlineStr"/>
+      <c r="F40" s="82" t="inlineStr"/>
       <c r="G40" s="82" t="inlineStr"/>
-      <c r="H40" s="85" t="inlineStr">
-        <is>
-          <t>77.3</t>
-        </is>
-      </c>
-      <c r="I40" s="89" t="inlineStr">
-        <is>
-          <t>92.4</t>
+      <c r="H40" s="91" t="inlineStr">
+        <is>
+          <t>25.3</t>
+        </is>
+      </c>
+      <c r="I40" s="85" t="inlineStr">
+        <is>
+          <t>68.9</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 12:00 lun</t>
+          <t>2021-12-10 12:00 ven</t>
         </is>
       </c>
       <c r="B41" s="83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" s="83" t="n">
-        <v>65</v>
-      </c>
-      <c r="D41" s="94" t="n">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C41" s="81" t="n">
+        <v>60</v>
+      </c>
+      <c r="D41" s="95" t="n">
+        <v>29</v>
       </c>
       <c r="E41" s="77" t="inlineStr">
         <is>
@@ -3165,64 +3165,64 @@
       </c>
       <c r="F41" s="82" t="inlineStr"/>
       <c r="G41" s="82" t="inlineStr"/>
-      <c r="H41" s="90" t="inlineStr">
-        <is>
-          <t>43.2</t>
+      <c r="H41" s="84" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
       <c r="I41" s="89" t="inlineStr">
         <is>
-          <t>81.3</t>
+          <t>83.6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 15:00 lun</t>
-        </is>
-      </c>
-      <c r="B42" s="92" t="n">
-        <v>10</v>
-      </c>
-      <c r="C42" s="83" t="n">
-        <v>68</v>
-      </c>
-      <c r="D42" s="93" t="n">
-        <v>8</v>
+          <t>2021-12-10 15:00 ven</t>
+        </is>
+      </c>
+      <c r="B42" s="83" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" s="86" t="n">
+        <v>72</v>
+      </c>
+      <c r="D42" s="94" t="n">
+        <v>22</v>
       </c>
       <c r="E42" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F42" s="82" t="inlineStr"/>
+      <c r="F42" s="83" t="inlineStr"/>
       <c r="G42" s="82" t="inlineStr"/>
-      <c r="H42" s="82" t="inlineStr">
-        <is>
-          <t>1.2</t>
+      <c r="H42" s="91" t="inlineStr">
+        <is>
+          <t>27.8</t>
         </is>
       </c>
       <c r="I42" s="85" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>60.6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 18:00 lun</t>
-        </is>
-      </c>
-      <c r="B43" s="92" t="n">
-        <v>9</v>
+          <t>2021-12-10 18:00 ven</t>
+        </is>
+      </c>
+      <c r="B43" s="83" t="n">
+        <v>13</v>
       </c>
       <c r="C43" s="86" t="n">
-        <v>73</v>
-      </c>
-      <c r="D43" s="93" t="n">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="D43" s="95" t="n">
+        <v>33</v>
       </c>
       <c r="E43" s="77" t="inlineStr">
         <is>
@@ -3231,80 +3231,80 @@
       </c>
       <c r="F43" s="82" t="inlineStr"/>
       <c r="G43" s="82" t="inlineStr"/>
-      <c r="H43" s="82" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="I43" s="90" t="inlineStr">
-        <is>
-          <t>39.7</t>
+      <c r="H43" s="84" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
+      <c r="I43" s="89" t="inlineStr">
+        <is>
+          <t>80.3</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 21:00 lun</t>
-        </is>
-      </c>
-      <c r="B44" s="92" t="n">
-        <v>9</v>
+          <t>2021-12-10 21:00 ven</t>
+        </is>
+      </c>
+      <c r="B44" s="83" t="n">
+        <v>12</v>
       </c>
       <c r="C44" s="86" t="n">
-        <v>73</v>
-      </c>
-      <c r="D44" s="81" t="n">
-        <v>13</v>
+        <v>87</v>
+      </c>
+      <c r="D44" s="95" t="n">
+        <v>31</v>
       </c>
       <c r="E44" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F44" s="82" t="inlineStr"/>
+      <c r="F44" s="83" t="inlineStr"/>
       <c r="G44" s="82" t="inlineStr"/>
-      <c r="H44" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I44" s="91" t="inlineStr">
-        <is>
-          <t>23.7</t>
+      <c r="H44" s="85" t="inlineStr">
+        <is>
+          <t>64.2</t>
+        </is>
+      </c>
+      <c r="I44" s="89" t="inlineStr">
+        <is>
+          <t>97.9</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 00:00 mar</t>
-        </is>
-      </c>
-      <c r="B45" s="92" t="n">
-        <v>9</v>
+          <t>2021-12-11 00:00 sab</t>
+        </is>
+      </c>
+      <c r="B45" s="83" t="n">
+        <v>13</v>
       </c>
       <c r="C45" s="86" t="n">
-        <v>71</v>
-      </c>
-      <c r="D45" s="81" t="n">
-        <v>19</v>
+        <v>81</v>
+      </c>
+      <c r="D45" s="95" t="n">
+        <v>35</v>
       </c>
       <c r="E45" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F45" s="82" t="inlineStr"/>
+      <c r="F45" s="83" t="inlineStr"/>
       <c r="G45" s="82" t="inlineStr"/>
-      <c r="H45" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I45" s="90" t="inlineStr">
-        <is>
-          <t>45.7</t>
+      <c r="H45" s="89" t="inlineStr">
+        <is>
+          <t>82.1</t>
+        </is>
+      </c>
+      <c r="I45" s="89" t="inlineStr">
+        <is>
+          <t>99</t>
         </is>
       </c>
     </row>

--- a/simpleWeatherSimply.xlsx
+++ b/simpleWeatherSimply.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -241,6 +241,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -351,79 +352,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -438,13 +371,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -463,13 +396,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -488,13 +421,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -513,13 +446,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -538,13 +471,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -563,13 +496,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -588,13 +521,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -613,13 +546,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -638,13 +571,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -663,13 +596,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -688,13 +621,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -713,13 +646,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -738,13 +671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -763,13 +696,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -788,13 +721,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -813,13 +746,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -838,13 +771,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -863,13 +796,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -888,13 +821,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -913,13 +846,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -938,13 +871,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -963,13 +896,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -988,13 +921,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1013,13 +946,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1038,13 +971,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1063,13 +996,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1088,13 +1021,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1113,13 +1046,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1138,13 +1071,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1163,13 +1096,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1188,13 +1121,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1213,13 +1146,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1238,13 +1171,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1263,13 +1196,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1288,13 +1221,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1313,13 +1246,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1338,13 +1271,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1363,13 +1296,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1388,13 +1321,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1413,13 +1346,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1438,13 +1371,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1463,13 +1396,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1488,13 +1421,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1513,13 +1446,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1789,7 +1722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1859,83 +1792,83 @@
     <row r="2">
       <c r="A2" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 15:00 dom</t>
-        </is>
-      </c>
-      <c r="B2" s="81" t="n">
-        <v>14</v>
+          <t>2021-12-06 09:00 Mon</t>
+        </is>
+      </c>
+      <c r="B2" s="83" t="n">
+        <v>12</v>
       </c>
       <c r="C2" s="86" t="n">
         <v>78</v>
       </c>
-      <c r="D2" s="94" t="n">
-        <v>28</v>
+      <c r="D2" s="87" t="n">
+        <v>5</v>
       </c>
       <c r="E2" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" s="82" t="inlineStr"/>
+      <c r="F2" s="83" t="inlineStr"/>
       <c r="G2" s="82" t="inlineStr"/>
-      <c r="H2" s="84" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I2" s="90" t="inlineStr">
-        <is>
-          <t>47.3</t>
+      <c r="H2" s="89" t="inlineStr">
+        <is>
+          <t>81.3</t>
+        </is>
+      </c>
+      <c r="I2" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 18:00 dom</t>
+          <t>2021-12-06 12:00 Mon</t>
         </is>
       </c>
       <c r="B3" s="83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="86" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" s="94" t="n">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="D3" s="81" t="n">
+        <v>12</v>
       </c>
       <c r="E3" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F3" s="82" t="inlineStr"/>
+      <c r="F3" s="83" t="inlineStr"/>
       <c r="G3" s="82" t="inlineStr"/>
-      <c r="H3" s="84" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="I3" s="91" t="inlineStr">
-        <is>
-          <t>24.6</t>
+      <c r="H3" s="85" t="inlineStr">
+        <is>
+          <t>60.3</t>
+        </is>
+      </c>
+      <c r="I3" s="89" t="inlineStr">
+        <is>
+          <t>96.3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="77" t="inlineStr">
         <is>
-          <t>2021-12-05 21:00 dom</t>
+          <t>2021-12-06 15:00 Mon</t>
         </is>
       </c>
       <c r="B4" s="83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="86" t="n">
-        <v>84</v>
-      </c>
-      <c r="D4" s="94" t="n">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="D4" s="93" t="n">
+        <v>11</v>
       </c>
       <c r="E4" s="77" t="inlineStr">
         <is>
@@ -1946,29 +1879,29 @@
       <c r="G4" s="82" t="inlineStr"/>
       <c r="H4" s="88" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I4" s="89" t="inlineStr">
-        <is>
-          <t>80.9</t>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="I4" s="90" t="inlineStr">
+        <is>
+          <t>36.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 00:00 lun</t>
+          <t>2021-12-06 18:00 Mon</t>
         </is>
       </c>
       <c r="B5" s="92" t="n">
         <v>10</v>
       </c>
       <c r="C5" s="86" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="93" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="77" t="inlineStr">
         <is>
@@ -1979,106 +1912,106 @@
       <c r="G5" s="82" t="inlineStr"/>
       <c r="H5" s="88" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="I5" s="85" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>68.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 03:00 lun</t>
+          <t>2021-12-06 21:00 Mon</t>
         </is>
       </c>
       <c r="B6" s="92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="86" t="n">
-        <v>83</v>
-      </c>
-      <c r="D6" s="93" t="n">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="D6" s="81" t="n">
+        <v>16</v>
       </c>
       <c r="E6" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F6" s="83" t="inlineStr"/>
+      <c r="F6" s="82" t="inlineStr"/>
       <c r="G6" s="82" t="inlineStr"/>
-      <c r="H6" s="91" t="inlineStr">
-        <is>
-          <t>27.8</t>
+      <c r="H6" s="88" t="inlineStr">
+        <is>
+          <t>8.3</t>
         </is>
       </c>
       <c r="I6" s="89" t="inlineStr">
         <is>
-          <t>96.7</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 06:00 lun</t>
+          <t>2021-12-07 00:00 Tue</t>
         </is>
       </c>
       <c r="B7" s="92" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="86" t="n">
-        <v>89</v>
-      </c>
-      <c r="D7" s="87" t="n">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="D7" s="81" t="n">
+        <v>16</v>
       </c>
       <c r="E7" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F7" s="83" t="inlineStr"/>
+      <c r="F7" s="82" t="inlineStr"/>
       <c r="G7" s="82" t="inlineStr"/>
-      <c r="H7" s="85" t="inlineStr">
-        <is>
-          <t>63.4</t>
+      <c r="H7" s="88" t="inlineStr">
+        <is>
+          <t>8.8</t>
         </is>
       </c>
       <c r="I7" s="89" t="inlineStr">
         <is>
-          <t>98.4</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 09:00 lun</t>
-        </is>
-      </c>
-      <c r="B8" s="83" t="n">
-        <v>12</v>
+          <t>2021-12-07 03:00 Tue</t>
+        </is>
+      </c>
+      <c r="B8" s="92" t="n">
+        <v>9</v>
       </c>
       <c r="C8" s="86" t="n">
-        <v>84</v>
-      </c>
-      <c r="D8" s="81" t="n">
-        <v>13</v>
+        <v>82</v>
+      </c>
+      <c r="D8" s="97" t="n">
+        <v>45</v>
       </c>
       <c r="E8" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F8" s="83" t="inlineStr"/>
+      <c r="F8" s="82" t="inlineStr"/>
       <c r="G8" s="82" t="inlineStr"/>
-      <c r="H8" s="89" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H8" s="90" t="inlineStr">
+        <is>
+          <t>51.1</t>
         </is>
       </c>
       <c r="I8" s="89" t="inlineStr">
@@ -2090,50 +2023,50 @@
     <row r="9">
       <c r="A9" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 12:00 lun</t>
-        </is>
-      </c>
-      <c r="B9" s="83" t="n">
-        <v>12</v>
+          <t>2021-12-07 06:00 Tue</t>
+        </is>
+      </c>
+      <c r="B9" s="92" t="n">
+        <v>9</v>
       </c>
       <c r="C9" s="86" t="n">
-        <v>81</v>
-      </c>
-      <c r="D9" s="94" t="n">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="D9" s="95" t="n">
+        <v>37</v>
       </c>
       <c r="E9" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F9" s="82" t="inlineStr"/>
+      <c r="F9" s="83" t="inlineStr"/>
       <c r="G9" s="82" t="inlineStr"/>
-      <c r="H9" s="89" t="inlineStr">
-        <is>
-          <t>97.7</t>
+      <c r="H9" s="85" t="inlineStr">
+        <is>
+          <t>68.5</t>
         </is>
       </c>
       <c r="I9" s="89" t="inlineStr">
         <is>
-          <t>99.5</t>
+          <t>97.9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 15:00 lun</t>
+          <t>2021-12-07 09:00 Tue</t>
         </is>
       </c>
       <c r="B10" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="C10" s="86" t="n">
-        <v>78</v>
-      </c>
-      <c r="D10" s="94" t="n">
-        <v>25</v>
+      <c r="C10" s="83" t="n">
+        <v>67</v>
+      </c>
+      <c r="D10" s="95" t="n">
+        <v>33</v>
       </c>
       <c r="E10" s="77" t="inlineStr">
         <is>
@@ -2142,31 +2075,31 @@
       </c>
       <c r="F10" s="82" t="inlineStr"/>
       <c r="G10" s="82" t="inlineStr"/>
-      <c r="H10" s="91" t="inlineStr">
-        <is>
-          <t>23.5</t>
-        </is>
-      </c>
-      <c r="I10" s="90" t="inlineStr">
-        <is>
-          <t>35.7</t>
+      <c r="H10" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I10" s="85" t="inlineStr">
+        <is>
+          <t>70</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 18:00 lun</t>
+          <t>2021-12-07 12:00 Tue</t>
         </is>
       </c>
       <c r="B11" s="92" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="86" t="n">
-        <v>83</v>
-      </c>
-      <c r="D11" s="81" t="n">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="83" t="n">
+        <v>62</v>
+      </c>
+      <c r="D11" s="95" t="n">
+        <v>36</v>
       </c>
       <c r="E11" s="77" t="inlineStr">
         <is>
@@ -2175,31 +2108,31 @@
       </c>
       <c r="F11" s="82" t="inlineStr"/>
       <c r="G11" s="82" t="inlineStr"/>
-      <c r="H11" s="84" t="inlineStr">
-        <is>
-          <t>17.7</t>
-        </is>
-      </c>
-      <c r="I11" s="85" t="inlineStr">
-        <is>
-          <t>67.4</t>
+      <c r="H11" s="89" t="inlineStr">
+        <is>
+          <t>98.3</t>
+        </is>
+      </c>
+      <c r="I11" s="90" t="inlineStr">
+        <is>
+          <t>39.2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="77" t="inlineStr">
         <is>
-          <t>2021-12-06 21:00 lun</t>
+          <t>2021-12-07 15:00 Tue</t>
         </is>
       </c>
       <c r="B12" s="92" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="86" t="n">
-        <v>85</v>
-      </c>
-      <c r="D12" s="81" t="n">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="81" t="n">
+        <v>60</v>
+      </c>
+      <c r="D12" s="95" t="n">
+        <v>32</v>
       </c>
       <c r="E12" s="77" t="inlineStr">
         <is>
@@ -2208,97 +2141,97 @@
       </c>
       <c r="F12" s="82" t="inlineStr"/>
       <c r="G12" s="82" t="inlineStr"/>
-      <c r="H12" s="84" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I12" s="85" t="inlineStr">
-        <is>
-          <t>68.3</t>
+      <c r="H12" s="90" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I12" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 00:00 mar</t>
+          <t>2021-12-07 18:00 Tue</t>
         </is>
       </c>
       <c r="B13" s="92" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="86" t="n">
-        <v>87</v>
-      </c>
-      <c r="D13" s="81" t="n">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="83" t="n">
+        <v>61</v>
+      </c>
+      <c r="D13" s="95" t="n">
+        <v>30</v>
       </c>
       <c r="E13" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F13" s="83" t="inlineStr"/>
+      <c r="F13" s="82" t="inlineStr"/>
       <c r="G13" s="82" t="inlineStr"/>
       <c r="H13" s="90" t="inlineStr">
         <is>
-          <t>30.6</t>
-        </is>
-      </c>
-      <c r="I13" s="85" t="inlineStr">
-        <is>
-          <t>68.1</t>
+          <t>32.6</t>
+        </is>
+      </c>
+      <c r="I13" s="91" t="inlineStr">
+        <is>
+          <t>25.4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 03:00 mar</t>
+          <t>2021-12-07 21:00 Tue</t>
         </is>
       </c>
       <c r="B14" s="92" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" s="86" t="n">
-        <v>86</v>
-      </c>
-      <c r="D14" s="81" t="n">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="81" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" s="94" t="n">
+        <v>27</v>
       </c>
       <c r="E14" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F14" s="83" t="inlineStr"/>
+      <c r="F14" s="82" t="inlineStr"/>
       <c r="G14" s="82" t="inlineStr"/>
-      <c r="H14" s="89" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H14" s="85" t="inlineStr">
+        <is>
+          <t>60.2</t>
         </is>
       </c>
       <c r="I14" s="82" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 06:00 mar</t>
+          <t>2021-12-08 00:00 Wed</t>
         </is>
       </c>
       <c r="B15" s="92" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" s="86" t="n">
-        <v>92</v>
-      </c>
-      <c r="D15" s="81" t="n">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="83" t="n">
+        <v>62</v>
+      </c>
+      <c r="D15" s="94" t="n">
+        <v>23</v>
       </c>
       <c r="E15" s="77" t="inlineStr">
         <is>
@@ -2307,64 +2240,64 @@
       </c>
       <c r="F15" s="82" t="inlineStr"/>
       <c r="G15" s="82" t="inlineStr"/>
-      <c r="H15" s="85" t="inlineStr">
-        <is>
-          <t>70.1</t>
-        </is>
-      </c>
-      <c r="I15" s="88" t="inlineStr">
-        <is>
-          <t>7.4</t>
+      <c r="H15" s="90" t="inlineStr">
+        <is>
+          <t>39.4</t>
+        </is>
+      </c>
+      <c r="I15" s="82" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 09:00 mar</t>
+          <t>2021-12-08 03:00 Wed</t>
         </is>
       </c>
       <c r="B16" s="92" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" s="86" t="n">
-        <v>81</v>
-      </c>
-      <c r="D16" s="95" t="n">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="C16" s="83" t="n">
+        <v>68</v>
+      </c>
+      <c r="D16" s="94" t="n">
+        <v>23</v>
       </c>
       <c r="E16" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F16" s="83" t="inlineStr"/>
+      <c r="F16" s="82" t="inlineStr"/>
       <c r="G16" s="82" t="inlineStr"/>
-      <c r="H16" s="84" t="inlineStr">
-        <is>
-          <t>15.1</t>
-        </is>
-      </c>
-      <c r="I16" s="90" t="inlineStr">
-        <is>
-          <t>40.5</t>
+      <c r="H16" s="82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 12:00 mar</t>
-        </is>
-      </c>
-      <c r="B17" s="83" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" s="83" t="n">
-        <v>63</v>
-      </c>
-      <c r="D17" s="95" t="n">
-        <v>33</v>
+          <t>2021-12-08 06:00 Wed</t>
+        </is>
+      </c>
+      <c r="B17" s="92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="86" t="n">
+        <v>73</v>
+      </c>
+      <c r="D17" s="81" t="n">
+        <v>15</v>
       </c>
       <c r="E17" s="77" t="inlineStr">
         <is>
@@ -2373,21 +2306,21 @@
       </c>
       <c r="F17" s="82" t="inlineStr"/>
       <c r="G17" s="82" t="inlineStr"/>
-      <c r="H17" s="90" t="inlineStr">
-        <is>
-          <t>56.7</t>
-        </is>
-      </c>
-      <c r="I17" s="91" t="inlineStr">
-        <is>
-          <t>25.7</t>
+      <c r="H17" s="82" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="I17" s="77" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 15:00 mar</t>
+          <t>2021-12-08 09:00 Wed</t>
         </is>
       </c>
       <c r="B18" s="92" t="n">
@@ -2396,8 +2329,8 @@
       <c r="C18" s="83" t="n">
         <v>62</v>
       </c>
-      <c r="D18" s="95" t="n">
-        <v>31</v>
+      <c r="D18" s="81" t="n">
+        <v>13</v>
       </c>
       <c r="E18" s="77" t="inlineStr">
         <is>
@@ -2406,31 +2339,31 @@
       </c>
       <c r="F18" s="82" t="inlineStr"/>
       <c r="G18" s="82" t="inlineStr"/>
-      <c r="H18" s="90" t="inlineStr">
-        <is>
-          <t>46.8</t>
-        </is>
-      </c>
-      <c r="I18" s="82" t="inlineStr">
-        <is>
-          <t>1.6</t>
+      <c r="H18" s="82" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="I18" s="84" t="inlineStr">
+        <is>
+          <t>10.3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 18:00 mar</t>
-        </is>
-      </c>
-      <c r="B19" s="92" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" s="83" t="n">
-        <v>61</v>
-      </c>
-      <c r="D19" s="95" t="n">
-        <v>31</v>
+          <t>2021-12-08 12:00 Wed</t>
+        </is>
+      </c>
+      <c r="B19" s="83" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" s="81" t="n">
+        <v>50</v>
+      </c>
+      <c r="D19" s="93" t="n">
+        <v>6</v>
       </c>
       <c r="E19" s="77" t="inlineStr">
         <is>
@@ -2439,31 +2372,31 @@
       </c>
       <c r="F19" s="82" t="inlineStr"/>
       <c r="G19" s="82" t="inlineStr"/>
-      <c r="H19" s="90" t="inlineStr">
-        <is>
-          <t>45.6</t>
-        </is>
-      </c>
-      <c r="I19" s="82" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="H19" s="84" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="I19" s="90" t="inlineStr">
+        <is>
+          <t>47.6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="77" t="inlineStr">
         <is>
-          <t>2021-12-07 21:00 mar</t>
+          <t>2021-12-08 15:00 Wed</t>
         </is>
       </c>
       <c r="B20" s="92" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="83" t="n">
-        <v>65</v>
-      </c>
-      <c r="D20" s="94" t="n">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="D20" s="81" t="n">
+        <v>18</v>
       </c>
       <c r="E20" s="77" t="inlineStr">
         <is>
@@ -2472,31 +2405,31 @@
       </c>
       <c r="F20" s="82" t="inlineStr"/>
       <c r="G20" s="82" t="inlineStr"/>
-      <c r="H20" s="88" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="I20" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H20" s="90" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="I20" s="90" t="inlineStr">
+        <is>
+          <t>54.1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="77" t="inlineStr">
         <is>
-          <t>2021-12-08 00:00 mer</t>
-        </is>
-      </c>
-      <c r="B21" s="92" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" s="83" t="n">
-        <v>70</v>
+          <t>2021-12-08 18:00 Wed</t>
+        </is>
+      </c>
+      <c r="B21" s="83" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" s="86" t="n">
+        <v>74</v>
       </c>
       <c r="D21" s="94" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="77" t="inlineStr">
         <is>
@@ -2505,31 +2438,31 @@
       </c>
       <c r="F21" s="82" t="inlineStr"/>
       <c r="G21" s="82" t="inlineStr"/>
-      <c r="H21" s="84" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="I21" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H21" s="85" t="inlineStr">
+        <is>
+          <t>65.5</t>
+        </is>
+      </c>
+      <c r="I21" s="91" t="inlineStr">
+        <is>
+          <t>29.5</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="77" t="inlineStr">
         <is>
-          <t>2021-12-08 03:00 mer</t>
-        </is>
-      </c>
-      <c r="B22" s="92" t="n">
-        <v>6</v>
-      </c>
-      <c r="C22" s="83" t="n">
-        <v>70</v>
-      </c>
-      <c r="D22" s="81" t="n">
-        <v>19</v>
+          <t>2021-12-08 21:00 Wed</t>
+        </is>
+      </c>
+      <c r="B22" s="83" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="86" t="n">
+        <v>78</v>
+      </c>
+      <c r="D22" s="94" t="n">
+        <v>27</v>
       </c>
       <c r="E22" s="77" t="inlineStr">
         <is>
@@ -2538,31 +2471,31 @@
       </c>
       <c r="F22" s="82" t="inlineStr"/>
       <c r="G22" s="82" t="inlineStr"/>
-      <c r="H22" s="82" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="I22" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H22" s="88" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="I22" s="90" t="inlineStr">
+        <is>
+          <t>50.2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="77" t="inlineStr">
         <is>
-          <t>2021-12-08 06:00 mer</t>
-        </is>
-      </c>
-      <c r="B23" s="92" t="n">
-        <v>5</v>
+          <t>2021-12-09 00:00 Thu</t>
+        </is>
+      </c>
+      <c r="B23" s="83" t="n">
+        <v>13</v>
       </c>
       <c r="C23" s="86" t="n">
-        <v>73</v>
-      </c>
-      <c r="D23" s="81" t="n">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="D23" s="95" t="n">
+        <v>31</v>
       </c>
       <c r="E23" s="77" t="inlineStr">
         <is>
@@ -2571,64 +2504,64 @@
       </c>
       <c r="F23" s="82" t="inlineStr"/>
       <c r="G23" s="82" t="inlineStr"/>
-      <c r="H23" s="82" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="I23" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H23" s="88" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="I23" s="91" t="inlineStr">
+        <is>
+          <t>25.1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="77" t="inlineStr">
         <is>
-          <t>2021-12-08 09:00 mer</t>
-        </is>
-      </c>
-      <c r="B24" s="92" t="n">
-        <v>10</v>
-      </c>
-      <c r="C24" s="81" t="n">
-        <v>60</v>
-      </c>
-      <c r="D24" s="93" t="n">
-        <v>11</v>
+          <t>2021-12-09 03:00 Thu</t>
+        </is>
+      </c>
+      <c r="B24" s="83" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" s="86" t="n">
+        <v>89</v>
+      </c>
+      <c r="D24" s="94" t="n">
+        <v>27</v>
       </c>
       <c r="E24" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F24" s="82" t="inlineStr"/>
+      <c r="F24" s="83" t="inlineStr"/>
       <c r="G24" s="82" t="inlineStr"/>
       <c r="H24" s="82" t="inlineStr">
         <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="I24" s="88" t="inlineStr">
-        <is>
-          <t>9.6</t>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="I24" s="82" t="inlineStr">
+        <is>
+          <t>3.1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="77" t="inlineStr">
         <is>
-          <t>2021-12-08 12:00 mer</t>
+          <t>2021-12-09 06:00 Thu</t>
         </is>
       </c>
       <c r="B25" s="83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" s="81" t="n">
-        <v>42</v>
-      </c>
-      <c r="D25" s="93" t="n">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C25" s="86" t="n">
+        <v>89</v>
+      </c>
+      <c r="D25" s="95" t="n">
+        <v>31</v>
       </c>
       <c r="E25" s="77" t="inlineStr">
         <is>
@@ -2637,64 +2570,64 @@
       </c>
       <c r="F25" s="82" t="inlineStr"/>
       <c r="G25" s="82" t="inlineStr"/>
-      <c r="H25" s="90" t="inlineStr">
-        <is>
-          <t>36.8</t>
-        </is>
-      </c>
-      <c r="I25" s="88" t="inlineStr">
-        <is>
-          <t>8.1</t>
+      <c r="H25" s="84" t="inlineStr">
+        <is>
+          <t>21.3</t>
+        </is>
+      </c>
+      <c r="I25" s="84" t="inlineStr">
+        <is>
+          <t>18.8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="77" t="inlineStr">
         <is>
-          <t>2021-12-08 15:00 mer</t>
-        </is>
-      </c>
-      <c r="B26" s="92" t="n">
-        <v>10</v>
-      </c>
-      <c r="C26" s="83" t="n">
-        <v>65</v>
-      </c>
-      <c r="D26" s="81" t="n">
-        <v>17</v>
+          <t>2021-12-09 09:00 Thu</t>
+        </is>
+      </c>
+      <c r="B26" s="81" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" s="86" t="n">
+        <v>79</v>
+      </c>
+      <c r="D26" s="95" t="n">
+        <v>33</v>
       </c>
       <c r="E26" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F26" s="82" t="inlineStr"/>
+      <c r="F26" s="83" t="inlineStr"/>
       <c r="G26" s="82" t="inlineStr"/>
-      <c r="H26" s="89" t="inlineStr">
-        <is>
-          <t>88.2</t>
-        </is>
-      </c>
-      <c r="I26" s="85" t="inlineStr">
-        <is>
-          <t>64.2</t>
+      <c r="H26" s="85" t="inlineStr">
+        <is>
+          <t>68.1</t>
+        </is>
+      </c>
+      <c r="I26" s="91" t="inlineStr">
+        <is>
+          <t>22.2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="77" t="inlineStr">
         <is>
-          <t>2021-12-08 18:00 mer</t>
-        </is>
-      </c>
-      <c r="B27" s="83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C27" s="86" t="n">
-        <v>80</v>
+          <t>2021-12-09 12:00 Thu</t>
+        </is>
+      </c>
+      <c r="B27" s="81" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" s="83" t="n">
+        <v>67</v>
       </c>
       <c r="D27" s="94" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="77" t="inlineStr">
         <is>
@@ -2703,31 +2636,31 @@
       </c>
       <c r="F27" s="82" t="inlineStr"/>
       <c r="G27" s="82" t="inlineStr"/>
-      <c r="H27" s="89" t="inlineStr">
-        <is>
-          <t>93.9</t>
-        </is>
-      </c>
-      <c r="I27" s="90" t="inlineStr">
-        <is>
-          <t>34.6</t>
+      <c r="H27" s="90" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I27" s="84" t="inlineStr">
+        <is>
+          <t>14.2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="77" t="inlineStr">
         <is>
-          <t>2021-12-08 21:00 mer</t>
+          <t>2021-12-09 15:00 Thu</t>
         </is>
       </c>
       <c r="B28" s="83" t="n">
         <v>12</v>
       </c>
-      <c r="C28" s="86" t="n">
-        <v>84</v>
-      </c>
-      <c r="D28" s="94" t="n">
-        <v>24</v>
+      <c r="C28" s="83" t="n">
+        <v>66</v>
+      </c>
+      <c r="D28" s="97" t="n">
+        <v>44</v>
       </c>
       <c r="E28" s="77" t="inlineStr">
         <is>
@@ -2736,31 +2669,31 @@
       </c>
       <c r="F28" s="82" t="inlineStr"/>
       <c r="G28" s="82" t="inlineStr"/>
-      <c r="H28" s="90" t="inlineStr">
-        <is>
-          <t>58.1</t>
-        </is>
-      </c>
-      <c r="I28" s="84" t="inlineStr">
-        <is>
-          <t>16.7</t>
+      <c r="H28" s="89" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I28" s="85" t="inlineStr">
+        <is>
+          <t>70.1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="77" t="inlineStr">
         <is>
-          <t>2021-12-09 00:00 gio</t>
+          <t>2021-12-09 18:00 Thu</t>
         </is>
       </c>
       <c r="B29" s="83" t="n">
-        <v>13</v>
-      </c>
-      <c r="C29" s="86" t="n">
-        <v>82</v>
-      </c>
-      <c r="D29" s="94" t="n">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C29" s="83" t="n">
+        <v>61</v>
+      </c>
+      <c r="D29" s="95" t="n">
+        <v>38</v>
       </c>
       <c r="E29" s="77" t="inlineStr">
         <is>
@@ -2769,31 +2702,31 @@
       </c>
       <c r="F29" s="82" t="inlineStr"/>
       <c r="G29" s="82" t="inlineStr"/>
-      <c r="H29" s="90" t="inlineStr">
-        <is>
-          <t>30.5</t>
-        </is>
-      </c>
-      <c r="I29" s="88" t="inlineStr">
-        <is>
-          <t>9.2</t>
+      <c r="H29" s="89" t="inlineStr">
+        <is>
+          <t>86.7</t>
+        </is>
+      </c>
+      <c r="I29" s="89" t="inlineStr">
+        <is>
+          <t>84.9</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="77" t="inlineStr">
         <is>
-          <t>2021-12-09 03:00 gio</t>
-        </is>
-      </c>
-      <c r="B30" s="81" t="n">
-        <v>14</v>
-      </c>
-      <c r="C30" s="86" t="n">
-        <v>88</v>
-      </c>
-      <c r="D30" s="95" t="n">
-        <v>32</v>
+          <t>2021-12-09 21:00 Thu</t>
+        </is>
+      </c>
+      <c r="B30" s="92" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="83" t="n">
+        <v>64</v>
+      </c>
+      <c r="D30" s="94" t="n">
+        <v>26</v>
       </c>
       <c r="E30" s="77" t="inlineStr">
         <is>
@@ -2802,31 +2735,31 @@
       </c>
       <c r="F30" s="82" t="inlineStr"/>
       <c r="G30" s="82" t="inlineStr"/>
-      <c r="H30" s="84" t="inlineStr">
-        <is>
-          <t>16.3</t>
-        </is>
-      </c>
-      <c r="I30" s="84" t="inlineStr">
-        <is>
-          <t>16.5</t>
+      <c r="H30" s="88" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="I30" s="90" t="inlineStr">
+        <is>
+          <t>58.2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="77" t="inlineStr">
         <is>
-          <t>2021-12-09 06:00 gio</t>
-        </is>
-      </c>
-      <c r="B31" s="81" t="n">
-        <v>14</v>
-      </c>
-      <c r="C31" s="86" t="n">
-        <v>80</v>
-      </c>
-      <c r="D31" s="97" t="n">
-        <v>42</v>
+          <t>2021-12-10 00:00 Fri</t>
+        </is>
+      </c>
+      <c r="B31" s="92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="83" t="n">
+        <v>64</v>
+      </c>
+      <c r="D31" s="81" t="n">
+        <v>19</v>
       </c>
       <c r="E31" s="77" t="inlineStr">
         <is>
@@ -2837,29 +2770,29 @@
       <c r="G31" s="82" t="inlineStr"/>
       <c r="H31" s="84" t="inlineStr">
         <is>
-          <t>15.5</t>
-        </is>
-      </c>
-      <c r="I31" s="88" t="inlineStr">
-        <is>
-          <t>8.2</t>
+          <t>18.3</t>
+        </is>
+      </c>
+      <c r="I31" s="90" t="inlineStr">
+        <is>
+          <t>39.3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="77" t="inlineStr">
         <is>
-          <t>2021-12-09 09:00 gio</t>
-        </is>
-      </c>
-      <c r="B32" s="81" t="n">
-        <v>16</v>
-      </c>
-      <c r="C32" s="86" t="n">
-        <v>72</v>
-      </c>
-      <c r="D32" s="98" t="n">
-        <v>54</v>
+          <t>2021-12-10 03:00 Fri</t>
+        </is>
+      </c>
+      <c r="B32" s="92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C32" s="83" t="n">
+        <v>65</v>
+      </c>
+      <c r="D32" s="94" t="n">
+        <v>27</v>
       </c>
       <c r="E32" s="77" t="inlineStr">
         <is>
@@ -2870,95 +2803,95 @@
       <c r="G32" s="82" t="inlineStr"/>
       <c r="H32" s="82" t="inlineStr">
         <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="I32" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I32" s="88" t="inlineStr">
+        <is>
+          <t>6.7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="77" t="inlineStr">
         <is>
-          <t>2021-12-09 12:00 gio</t>
-        </is>
-      </c>
-      <c r="B33" s="81" t="n">
-        <v>16</v>
-      </c>
-      <c r="C33" s="86" t="n">
-        <v>72</v>
-      </c>
-      <c r="D33" s="98" t="n">
-        <v>56</v>
+          <t>2021-12-10 06:00 Fri</t>
+        </is>
+      </c>
+      <c r="B33" s="92" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" s="83" t="n">
+        <v>67</v>
+      </c>
+      <c r="D33" s="81" t="n">
+        <v>17</v>
       </c>
       <c r="E33" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F33" s="83" t="inlineStr"/>
+      <c r="F33" s="82" t="inlineStr"/>
       <c r="G33" s="82" t="inlineStr"/>
-      <c r="H33" s="82" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="I33" s="77" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H33" s="84" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="I33" s="90" t="inlineStr">
+        <is>
+          <t>53.4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="77" t="inlineStr">
         <is>
-          <t>2021-12-09 15:00 gio</t>
+          <t>2021-12-10 09:00 Fri</t>
         </is>
       </c>
       <c r="B34" s="83" t="n">
-        <v>12</v>
-      </c>
-      <c r="C34" s="83" t="n">
-        <v>69</v>
-      </c>
-      <c r="D34" s="97" t="n">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="C34" s="81" t="n">
+        <v>53</v>
+      </c>
+      <c r="D34" s="94" t="n">
+        <v>25</v>
       </c>
       <c r="E34" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F34" s="83" t="inlineStr"/>
+      <c r="F34" s="82" t="inlineStr"/>
       <c r="G34" s="82" t="inlineStr"/>
-      <c r="H34" s="85" t="inlineStr">
-        <is>
-          <t>68.3</t>
-        </is>
-      </c>
-      <c r="I34" s="90" t="inlineStr">
-        <is>
-          <t>31.5</t>
+      <c r="H34" s="82" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="I34" s="91" t="inlineStr">
+        <is>
+          <t>24.3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="77" t="inlineStr">
         <is>
-          <t>2021-12-09 18:00 gio</t>
+          <t>2021-12-10 12:00 Fri</t>
         </is>
       </c>
       <c r="B35" s="83" t="n">
-        <v>11</v>
-      </c>
-      <c r="C35" s="83" t="n">
-        <v>62</v>
-      </c>
-      <c r="D35" s="95" t="n">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="81" t="n">
+        <v>56</v>
+      </c>
+      <c r="D35" s="94" t="n">
+        <v>26</v>
       </c>
       <c r="E35" s="77" t="inlineStr">
         <is>
@@ -2967,31 +2900,31 @@
       </c>
       <c r="F35" s="82" t="inlineStr"/>
       <c r="G35" s="82" t="inlineStr"/>
-      <c r="H35" s="89" t="inlineStr">
-        <is>
-          <t>80.7</t>
+      <c r="H35" s="88" t="inlineStr">
+        <is>
+          <t>6.2</t>
         </is>
       </c>
       <c r="I35" s="90" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>39.8</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="77" t="inlineStr">
         <is>
-          <t>2021-12-09 21:00 gio</t>
+          <t>2021-12-10 15:00 Fri</t>
         </is>
       </c>
       <c r="B36" s="83" t="n">
         <v>11</v>
       </c>
       <c r="C36" s="83" t="n">
-        <v>61</v>
-      </c>
-      <c r="D36" s="94" t="n">
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="D36" s="81" t="n">
+        <v>12</v>
       </c>
       <c r="E36" s="77" t="inlineStr">
         <is>
@@ -3000,31 +2933,31 @@
       </c>
       <c r="F36" s="82" t="inlineStr"/>
       <c r="G36" s="82" t="inlineStr"/>
-      <c r="H36" s="91" t="inlineStr">
-        <is>
-          <t>29.4</t>
-        </is>
-      </c>
-      <c r="I36" s="89" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="H36" s="85" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="I36" s="90" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="77" t="inlineStr">
         <is>
-          <t>2021-12-10 00:00 ven</t>
+          <t>2021-12-10 18:00 Fri</t>
         </is>
       </c>
       <c r="B37" s="92" t="n">
         <v>10</v>
       </c>
-      <c r="C37" s="81" t="n">
-        <v>57</v>
-      </c>
-      <c r="D37" s="94" t="n">
-        <v>23</v>
+      <c r="C37" s="86" t="n">
+        <v>78</v>
+      </c>
+      <c r="D37" s="81" t="n">
+        <v>15</v>
       </c>
       <c r="E37" s="77" t="inlineStr">
         <is>
@@ -3033,31 +2966,31 @@
       </c>
       <c r="F37" s="82" t="inlineStr"/>
       <c r="G37" s="82" t="inlineStr"/>
-      <c r="H37" s="84" t="inlineStr">
-        <is>
-          <t>16.9</t>
-        </is>
-      </c>
-      <c r="I37" s="89" t="inlineStr">
-        <is>
-          <t>84.2</t>
+      <c r="H37" s="89" t="inlineStr">
+        <is>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="I37" s="90" t="inlineStr">
+        <is>
+          <t>31.8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="77" t="inlineStr">
         <is>
-          <t>2021-12-10 03:00 ven</t>
-        </is>
-      </c>
-      <c r="B38" s="92" t="n">
-        <v>8</v>
+          <t>2021-12-10 21:00 Fri</t>
+        </is>
+      </c>
+      <c r="B38" s="83" t="n">
+        <v>11</v>
       </c>
       <c r="C38" s="86" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D38" s="81" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E38" s="77" t="inlineStr">
         <is>
@@ -3066,64 +2999,64 @@
       </c>
       <c r="F38" s="83" t="inlineStr"/>
       <c r="G38" s="82" t="inlineStr"/>
-      <c r="H38" s="82" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="I38" s="90" t="inlineStr">
-        <is>
-          <t>36</t>
+      <c r="H38" s="85" t="inlineStr">
+        <is>
+          <t>67.7</t>
+        </is>
+      </c>
+      <c r="I38" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="77" t="inlineStr">
         <is>
-          <t>2021-12-10 06:00 ven</t>
-        </is>
-      </c>
-      <c r="B39" s="92" t="n">
-        <v>10</v>
-      </c>
-      <c r="C39" s="83" t="n">
-        <v>67</v>
-      </c>
-      <c r="D39" s="94" t="n">
-        <v>21</v>
+          <t>2021-12-11 00:00 Sat</t>
+        </is>
+      </c>
+      <c r="B39" s="83" t="n">
+        <v>13</v>
+      </c>
+      <c r="C39" s="86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D39" s="97" t="n">
+        <v>39</v>
       </c>
       <c r="E39" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F39" s="82" t="inlineStr"/>
+      <c r="F39" s="83" t="inlineStr"/>
       <c r="G39" s="82" t="inlineStr"/>
-      <c r="H39" s="82" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="I39" s="90" t="inlineStr">
-        <is>
-          <t>50.4</t>
+      <c r="H39" s="85" t="inlineStr">
+        <is>
+          <t>72.7</t>
+        </is>
+      </c>
+      <c r="I39" s="89" t="inlineStr">
+        <is>
+          <t>89.7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="77" t="inlineStr">
         <is>
-          <t>2021-12-10 09:00 ven</t>
-        </is>
-      </c>
-      <c r="B40" s="83" t="n">
-        <v>13</v>
-      </c>
-      <c r="C40" s="81" t="n">
-        <v>58</v>
-      </c>
-      <c r="D40" s="94" t="n">
-        <v>24</v>
+          <t>2021-12-11 03:00 Sat</t>
+        </is>
+      </c>
+      <c r="B40" s="81" t="n">
+        <v>14</v>
+      </c>
+      <c r="C40" s="86" t="n">
+        <v>77</v>
+      </c>
+      <c r="D40" s="97" t="n">
+        <v>45</v>
       </c>
       <c r="E40" s="77" t="inlineStr">
         <is>
@@ -3132,64 +3065,64 @@
       </c>
       <c r="F40" s="82" t="inlineStr"/>
       <c r="G40" s="82" t="inlineStr"/>
-      <c r="H40" s="91" t="inlineStr">
-        <is>
-          <t>25.3</t>
-        </is>
-      </c>
-      <c r="I40" s="85" t="inlineStr">
-        <is>
-          <t>68.9</t>
+      <c r="H40" s="90" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I40" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="77" t="inlineStr">
         <is>
-          <t>2021-12-10 12:00 ven</t>
+          <t>2021-12-11 06:00 Sat</t>
         </is>
       </c>
       <c r="B41" s="83" t="n">
         <v>13</v>
       </c>
-      <c r="C41" s="81" t="n">
-        <v>60</v>
-      </c>
-      <c r="D41" s="95" t="n">
-        <v>29</v>
+      <c r="C41" s="86" t="n">
+        <v>83</v>
+      </c>
+      <c r="D41" s="97" t="n">
+        <v>41</v>
       </c>
       <c r="E41" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F41" s="82" t="inlineStr"/>
+      <c r="F41" s="83" t="inlineStr"/>
       <c r="G41" s="82" t="inlineStr"/>
-      <c r="H41" s="84" t="inlineStr">
-        <is>
-          <t>19</t>
+      <c r="H41" s="90" t="inlineStr">
+        <is>
+          <t>38.6</t>
         </is>
       </c>
       <c r="I41" s="89" t="inlineStr">
         <is>
-          <t>83.6</t>
+          <t>84.2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="77" t="inlineStr">
         <is>
-          <t>2021-12-10 15:00 ven</t>
+          <t>2021-12-11 09:00 Sat</t>
         </is>
       </c>
       <c r="B42" s="83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42" s="86" t="n">
-        <v>72</v>
-      </c>
-      <c r="D42" s="94" t="n">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="D42" s="97" t="n">
+        <v>47</v>
       </c>
       <c r="E42" s="77" t="inlineStr">
         <is>
@@ -3198,64 +3131,64 @@
       </c>
       <c r="F42" s="83" t="inlineStr"/>
       <c r="G42" s="82" t="inlineStr"/>
-      <c r="H42" s="91" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="I42" s="85" t="inlineStr">
-        <is>
-          <t>60.6</t>
+      <c r="H42" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I42" s="89" t="inlineStr">
+        <is>
+          <t>99.9</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="77" t="inlineStr">
         <is>
-          <t>2021-12-10 18:00 ven</t>
+          <t>2021-12-11 12:00 Sat</t>
         </is>
       </c>
       <c r="B43" s="83" t="n">
         <v>13</v>
       </c>
       <c r="C43" s="86" t="n">
-        <v>76</v>
-      </c>
-      <c r="D43" s="95" t="n">
-        <v>33</v>
+        <v>86</v>
+      </c>
+      <c r="D43" s="98" t="n">
+        <v>51</v>
       </c>
       <c r="E43" s="77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F43" s="82" t="inlineStr"/>
+      <c r="F43" s="83" t="inlineStr"/>
       <c r="G43" s="82" t="inlineStr"/>
-      <c r="H43" s="84" t="inlineStr">
-        <is>
-          <t>18.1</t>
+      <c r="H43" s="89" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="I43" s="89" t="inlineStr">
         <is>
-          <t>80.3</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="77" t="inlineStr">
         <is>
-          <t>2021-12-10 21:00 ven</t>
+          <t>2021-12-11 15:00 Sat</t>
         </is>
       </c>
       <c r="B44" s="83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="86" t="n">
-        <v>87</v>
-      </c>
-      <c r="D44" s="95" t="n">
-        <v>31</v>
+        <v>81</v>
+      </c>
+      <c r="D44" s="94" t="n">
+        <v>25</v>
       </c>
       <c r="E44" s="77" t="inlineStr">
         <is>
@@ -3266,29 +3199,29 @@
       <c r="G44" s="82" t="inlineStr"/>
       <c r="H44" s="85" t="inlineStr">
         <is>
-          <t>64.2</t>
+          <t>74.9</t>
         </is>
       </c>
       <c r="I44" s="89" t="inlineStr">
         <is>
-          <t>97.9</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="77" t="inlineStr">
         <is>
-          <t>2021-12-11 00:00 sab</t>
+          <t>2021-12-11 18:00 Sat</t>
         </is>
       </c>
       <c r="B45" s="83" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" s="86" t="n">
-        <v>81</v>
-      </c>
-      <c r="D45" s="95" t="n">
-        <v>35</v>
+        <v>72</v>
+      </c>
+      <c r="D45" s="94" t="n">
+        <v>26</v>
       </c>
       <c r="E45" s="77" t="inlineStr">
         <is>
@@ -3297,19 +3230,19 @@
       </c>
       <c r="F45" s="83" t="inlineStr"/>
       <c r="G45" s="82" t="inlineStr"/>
-      <c r="H45" s="89" t="inlineStr">
-        <is>
-          <t>82.1</t>
+      <c r="H45" s="85" t="inlineStr">
+        <is>
+          <t>75</t>
         </is>
       </c>
       <c r="I45" s="89" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>88.8</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/simpleWeatherSimply.xlsx
+++ b/simpleWeatherSimply.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foglio1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -248,6 +248,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -376,79 +377,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -463,13 +396,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -488,13 +421,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -513,13 +446,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -538,13 +471,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -563,13 +496,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -588,13 +521,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -613,13 +546,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -638,13 +571,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -663,13 +596,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId9"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -688,13 +621,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId10"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -713,13 +646,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId11"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -738,13 +671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId12"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -763,13 +696,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId13"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -788,13 +721,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId14"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -813,13 +746,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId15"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -838,13 +771,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId16"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -863,13 +796,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId17"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -888,13 +821,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId18"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -913,13 +846,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId19"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -938,13 +871,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId20"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -963,13 +896,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId21"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -988,13 +921,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId22"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1013,13 +946,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId23"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1038,13 +971,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId24"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1063,13 +996,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId25"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1088,13 +1021,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId26"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1113,13 +1046,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId27"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1138,13 +1071,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId28"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1163,13 +1096,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId29"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1188,13 +1121,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1213,13 +1146,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1238,13 +1171,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1263,13 +1196,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1288,13 +1221,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1313,13 +1246,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1338,13 +1271,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1363,13 +1296,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1388,13 +1321,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1413,13 +1346,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1438,13 +1371,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1463,13 +1396,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1488,13 +1421,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1513,13 +1446,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1538,13 +1471,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1814,7 +1747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1839,7 +1772,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="99" t="n"/>
+      <c r="A1" s="99" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
       <c r="B1" s="100" t="inlineStr">
         <is>
           <t>Temp (°C)</t>
@@ -1884,17 +1821,17 @@
     <row r="2">
       <c r="A2" s="99" t="inlineStr">
         <is>
-          <t>2021-12-14 15:00 mar</t>
-        </is>
-      </c>
-      <c r="B2" s="101" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="106" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" s="110" t="n">
-        <v>29</v>
+          <t>2021-12-29 03:00 Wed</t>
+        </is>
+      </c>
+      <c r="B2" s="106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" s="109" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" s="114" t="n">
+        <v>9</v>
       </c>
       <c r="E2" s="99" t="inlineStr">
         <is>
@@ -1903,31 +1840,31 @@
       </c>
       <c r="F2" s="103" t="inlineStr"/>
       <c r="G2" s="103" t="inlineStr"/>
-      <c r="H2" s="103" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="I2" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H2" s="115" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="I2" s="104" t="inlineStr">
+        <is>
+          <t>28.9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="99" t="inlineStr">
         <is>
-          <t>2021-12-14 18:00 mar</t>
+          <t>2021-12-29 06:00 Wed</t>
         </is>
       </c>
       <c r="B3" s="101" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" s="106" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" s="107" t="n">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="109" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" s="102" t="n">
+        <v>12</v>
       </c>
       <c r="E3" s="99" t="inlineStr">
         <is>
@@ -1936,31 +1873,31 @@
       </c>
       <c r="F3" s="103" t="inlineStr"/>
       <c r="G3" s="103" t="inlineStr"/>
-      <c r="H3" s="103" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="I3" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H3" s="115" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="I3" s="113" t="inlineStr">
+        <is>
+          <t>16.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="99" t="inlineStr">
         <is>
-          <t>2021-12-14 21:00 mar</t>
-        </is>
-      </c>
-      <c r="B4" s="101" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" s="106" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" s="107" t="n">
-        <v>22</v>
+          <t>2021-12-29 09:00 Wed</t>
+        </is>
+      </c>
+      <c r="B4" s="102" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" s="109" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" s="114" t="n">
+        <v>11</v>
       </c>
       <c r="E4" s="99" t="inlineStr">
         <is>
@@ -1969,31 +1906,31 @@
       </c>
       <c r="F4" s="103" t="inlineStr"/>
       <c r="G4" s="103" t="inlineStr"/>
-      <c r="H4" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I4" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H4" s="103" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="I4" s="105" t="inlineStr">
+        <is>
+          <t>36.1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="99" t="inlineStr">
         <is>
-          <t>2021-12-15 00:00 mer</t>
-        </is>
-      </c>
-      <c r="B5" s="101" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" s="106" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" s="107" t="n">
-        <v>27</v>
+          <t>2021-12-29 12:00 Wed</t>
+        </is>
+      </c>
+      <c r="B5" s="102" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="102" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" s="102" t="n">
+        <v>13</v>
       </c>
       <c r="E5" s="99" t="inlineStr">
         <is>
@@ -2002,31 +1939,31 @@
       </c>
       <c r="F5" s="103" t="inlineStr"/>
       <c r="G5" s="103" t="inlineStr"/>
-      <c r="H5" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H5" s="103" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="I5" s="113" t="inlineStr">
+        <is>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="99" t="inlineStr">
         <is>
-          <t>2021-12-15 03:00 mer</t>
-        </is>
-      </c>
-      <c r="B6" s="101" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" s="106" t="n">
-        <v>65</v>
-      </c>
-      <c r="D6" s="107" t="n">
-        <v>25</v>
+          <t>2021-12-29 15:00 Wed</t>
+        </is>
+      </c>
+      <c r="B6" s="106" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" s="109" t="n">
+        <v>76</v>
+      </c>
+      <c r="D6" s="102" t="n">
+        <v>13</v>
       </c>
       <c r="E6" s="99" t="inlineStr">
         <is>
@@ -2035,9 +1972,9 @@
       </c>
       <c r="F6" s="103" t="inlineStr"/>
       <c r="G6" s="103" t="inlineStr"/>
-      <c r="H6" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H6" s="103" t="inlineStr">
+        <is>
+          <t>3.4</t>
         </is>
       </c>
       <c r="I6" s="99" t="inlineStr">
@@ -2049,17 +1986,17 @@
     <row r="7">
       <c r="A7" s="99" t="inlineStr">
         <is>
-          <t>2021-12-15 06:00 mer</t>
-        </is>
-      </c>
-      <c r="B7" s="101" t="n">
-        <v>7</v>
+          <t>2021-12-29 18:00 Wed</t>
+        </is>
+      </c>
+      <c r="B7" s="106" t="n">
+        <v>11</v>
       </c>
       <c r="C7" s="109" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D7" s="102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="99" t="inlineStr">
         <is>
@@ -2068,9 +2005,9 @@
       </c>
       <c r="F7" s="103" t="inlineStr"/>
       <c r="G7" s="103" t="inlineStr"/>
-      <c r="H7" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H7" s="103" t="inlineStr">
+        <is>
+          <t>4.3</t>
         </is>
       </c>
       <c r="I7" s="99" t="inlineStr">
@@ -2082,28 +2019,28 @@
     <row r="8">
       <c r="A8" s="99" t="inlineStr">
         <is>
-          <t>2021-12-15 09:00 mer</t>
+          <t>2021-12-29 21:00 Wed</t>
         </is>
       </c>
       <c r="B8" s="106" t="n">
         <v>11</v>
       </c>
-      <c r="C8" s="106" t="n">
-        <v>61</v>
-      </c>
-      <c r="D8" s="107" t="n">
-        <v>20</v>
+      <c r="C8" s="109" t="n">
+        <v>90</v>
+      </c>
+      <c r="D8" s="102" t="n">
+        <v>17</v>
       </c>
       <c r="E8" s="99" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F8" s="103" t="inlineStr"/>
+      <c r="F8" s="106" t="inlineStr"/>
       <c r="G8" s="103" t="inlineStr"/>
-      <c r="H8" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H8" s="103" t="inlineStr">
+        <is>
+          <t>1.7</t>
         </is>
       </c>
       <c r="I8" s="99" t="inlineStr">
@@ -2115,17 +2052,17 @@
     <row r="9">
       <c r="A9" s="99" t="inlineStr">
         <is>
-          <t>2021-12-15 12:00 mer</t>
+          <t>2021-12-30 00:00 Thu</t>
         </is>
       </c>
       <c r="B9" s="106" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" s="102" t="n">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="109" t="n">
+        <v>87</v>
       </c>
       <c r="D9" s="107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="99" t="inlineStr">
         <is>
@@ -2134,9 +2071,9 @@
       </c>
       <c r="F9" s="103" t="inlineStr"/>
       <c r="G9" s="103" t="inlineStr"/>
-      <c r="H9" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H9" s="103" t="inlineStr">
+        <is>
+          <t>1.2</t>
         </is>
       </c>
       <c r="I9" s="99" t="inlineStr">
@@ -2148,17 +2085,17 @@
     <row r="10">
       <c r="A10" s="99" t="inlineStr">
         <is>
-          <t>2021-12-15 15:00 mer</t>
-        </is>
-      </c>
-      <c r="B10" s="101" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" s="106" t="n">
-        <v>68</v>
-      </c>
-      <c r="D10" s="102" t="n">
-        <v>15</v>
+          <t>2021-12-30 03:00 Thu</t>
+        </is>
+      </c>
+      <c r="B10" s="106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" s="109" t="n">
+        <v>84</v>
+      </c>
+      <c r="D10" s="107" t="n">
+        <v>27</v>
       </c>
       <c r="E10" s="99" t="inlineStr">
         <is>
@@ -2181,17 +2118,17 @@
     <row r="11">
       <c r="A11" s="99" t="inlineStr">
         <is>
-          <t>2021-12-15 18:00 mer</t>
-        </is>
-      </c>
-      <c r="B11" s="101" t="n">
-        <v>8</v>
+          <t>2021-12-30 06:00 Thu</t>
+        </is>
+      </c>
+      <c r="B11" s="106" t="n">
+        <v>11</v>
       </c>
       <c r="C11" s="109" t="n">
-        <v>76</v>
-      </c>
-      <c r="D11" s="102" t="n">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="110" t="n">
+        <v>33</v>
       </c>
       <c r="E11" s="99" t="inlineStr">
         <is>
@@ -2200,31 +2137,31 @@
       </c>
       <c r="F11" s="103" t="inlineStr"/>
       <c r="G11" s="103" t="inlineStr"/>
-      <c r="H11" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" s="103" t="inlineStr">
-        <is>
-          <t>0.6</t>
+      <c r="H11" s="103" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="I11" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="99" t="inlineStr">
         <is>
-          <t>2021-12-15 21:00 mer</t>
-        </is>
-      </c>
-      <c r="B12" s="101" t="n">
-        <v>8</v>
+          <t>2021-12-30 09:00 Thu</t>
+        </is>
+      </c>
+      <c r="B12" s="106" t="n">
+        <v>13</v>
       </c>
       <c r="C12" s="109" t="n">
-        <v>76</v>
-      </c>
-      <c r="D12" s="114" t="n">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="D12" s="110" t="n">
+        <v>34</v>
       </c>
       <c r="E12" s="99" t="inlineStr">
         <is>
@@ -2233,9 +2170,9 @@
       </c>
       <c r="F12" s="103" t="inlineStr"/>
       <c r="G12" s="103" t="inlineStr"/>
-      <c r="H12" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H12" s="115" t="inlineStr">
+        <is>
+          <t>9.6</t>
         </is>
       </c>
       <c r="I12" s="99" t="inlineStr">
@@ -2247,17 +2184,17 @@
     <row r="13">
       <c r="A13" s="99" t="inlineStr">
         <is>
-          <t>2021-12-16 00:00 gio</t>
-        </is>
-      </c>
-      <c r="B13" s="101" t="n">
-        <v>8</v>
+          <t>2021-12-30 12:00 Thu</t>
+        </is>
+      </c>
+      <c r="B13" s="102" t="n">
+        <v>14</v>
       </c>
       <c r="C13" s="106" t="n">
-        <v>70</v>
-      </c>
-      <c r="D13" s="102" t="n">
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="110" t="n">
+        <v>35</v>
       </c>
       <c r="E13" s="99" t="inlineStr">
         <is>
@@ -2266,9 +2203,9 @@
       </c>
       <c r="F13" s="103" t="inlineStr"/>
       <c r="G13" s="103" t="inlineStr"/>
-      <c r="H13" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H13" s="103" t="inlineStr">
+        <is>
+          <t>4.8</t>
         </is>
       </c>
       <c r="I13" s="99" t="inlineStr">
@@ -2280,17 +2217,17 @@
     <row r="14">
       <c r="A14" s="99" t="inlineStr">
         <is>
-          <t>2021-12-16 03:00 gio</t>
-        </is>
-      </c>
-      <c r="B14" s="101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C14" s="109" t="n">
-        <v>72</v>
-      </c>
-      <c r="D14" s="102" t="n">
-        <v>13</v>
+          <t>2021-12-30 15:00 Thu</t>
+        </is>
+      </c>
+      <c r="B14" s="106" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="106" t="n">
+        <v>67</v>
+      </c>
+      <c r="D14" s="107" t="n">
+        <v>27</v>
       </c>
       <c r="E14" s="99" t="inlineStr">
         <is>
@@ -2313,17 +2250,17 @@
     <row r="15">
       <c r="A15" s="99" t="inlineStr">
         <is>
-          <t>2021-12-16 06:00 gio</t>
-        </is>
-      </c>
-      <c r="B15" s="101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" s="109" t="n">
-        <v>71</v>
-      </c>
-      <c r="D15" s="102" t="n">
-        <v>13</v>
+          <t>2021-12-30 18:00 Thu</t>
+        </is>
+      </c>
+      <c r="B15" s="106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" s="106" t="n">
+        <v>65</v>
+      </c>
+      <c r="D15" s="110" t="n">
+        <v>30</v>
       </c>
       <c r="E15" s="99" t="inlineStr">
         <is>
@@ -2346,17 +2283,17 @@
     <row r="16">
       <c r="A16" s="99" t="inlineStr">
         <is>
-          <t>2021-12-16 09:00 gio</t>
+          <t>2021-12-30 21:00 Thu</t>
         </is>
       </c>
       <c r="B16" s="106" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="102" t="n">
-        <v>58</v>
-      </c>
-      <c r="D16" s="107" t="n">
-        <v>21</v>
+      <c r="C16" s="106" t="n">
+        <v>65</v>
+      </c>
+      <c r="D16" s="110" t="n">
+        <v>30</v>
       </c>
       <c r="E16" s="99" t="inlineStr">
         <is>
@@ -2379,17 +2316,17 @@
     <row r="17">
       <c r="A17" s="99" t="inlineStr">
         <is>
-          <t>2021-12-16 12:00 gio</t>
+          <t>2021-12-31 00:00 Fri</t>
         </is>
       </c>
       <c r="B17" s="106" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="102" t="n">
-        <v>55</v>
-      </c>
-      <c r="D17" s="107" t="n">
-        <v>20</v>
+      <c r="C17" s="106" t="n">
+        <v>65</v>
+      </c>
+      <c r="D17" s="110" t="n">
+        <v>30</v>
       </c>
       <c r="E17" s="99" t="inlineStr">
         <is>
@@ -2412,17 +2349,17 @@
     <row r="18">
       <c r="A18" s="99" t="inlineStr">
         <is>
-          <t>2021-12-16 15:00 gio</t>
+          <t>2021-12-31 03:00 Fri</t>
         </is>
       </c>
       <c r="B18" s="101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="106" t="n">
-        <v>69</v>
-      </c>
-      <c r="D18" s="102" t="n">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="D18" s="107" t="n">
+        <v>25</v>
       </c>
       <c r="E18" s="99" t="inlineStr">
         <is>
@@ -2431,9 +2368,9 @@
       </c>
       <c r="F18" s="103" t="inlineStr"/>
       <c r="G18" s="103" t="inlineStr"/>
-      <c r="H18" s="103" t="inlineStr">
-        <is>
-          <t>0.1</t>
+      <c r="H18" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I18" s="99" t="inlineStr">
@@ -2445,17 +2382,17 @@
     <row r="19">
       <c r="A19" s="99" t="inlineStr">
         <is>
-          <t>2021-12-16 18:00 gio</t>
+          <t>2021-12-31 06:00 Fri</t>
         </is>
       </c>
       <c r="B19" s="101" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19" s="109" t="n">
-        <v>78</v>
-      </c>
-      <c r="D19" s="114" t="n">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="D19" s="107" t="n">
+        <v>21</v>
       </c>
       <c r="E19" s="99" t="inlineStr">
         <is>
@@ -2464,9 +2401,9 @@
       </c>
       <c r="F19" s="103" t="inlineStr"/>
       <c r="G19" s="103" t="inlineStr"/>
-      <c r="H19" s="103" t="inlineStr">
-        <is>
-          <t>1.3</t>
+      <c r="H19" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I19" s="99" t="inlineStr">
@@ -2478,17 +2415,17 @@
     <row r="20">
       <c r="A20" s="99" t="inlineStr">
         <is>
-          <t>2021-12-16 21:00 gio</t>
-        </is>
-      </c>
-      <c r="B20" s="101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" s="109" t="n">
-        <v>79</v>
-      </c>
-      <c r="D20" s="114" t="n">
-        <v>11</v>
+          <t>2021-12-31 09:00 Fri</t>
+        </is>
+      </c>
+      <c r="B20" s="106" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" s="106" t="n">
+        <v>63</v>
+      </c>
+      <c r="D20" s="107" t="n">
+        <v>21</v>
       </c>
       <c r="E20" s="99" t="inlineStr">
         <is>
@@ -2497,9 +2434,9 @@
       </c>
       <c r="F20" s="103" t="inlineStr"/>
       <c r="G20" s="103" t="inlineStr"/>
-      <c r="H20" s="113" t="inlineStr">
-        <is>
-          <t>11.5</t>
+      <c r="H20" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I20" s="99" t="inlineStr">
@@ -2511,17 +2448,17 @@
     <row r="21">
       <c r="A21" s="99" t="inlineStr">
         <is>
-          <t>2021-12-17 00:00 ven</t>
-        </is>
-      </c>
-      <c r="B21" s="101" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" s="109" t="n">
-        <v>75</v>
-      </c>
-      <c r="D21" s="114" t="n">
-        <v>11</v>
+          <t>2021-12-31 12:00 Fri</t>
+        </is>
+      </c>
+      <c r="B21" s="102" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" s="102" t="n">
+        <v>59</v>
+      </c>
+      <c r="D21" s="107" t="n">
+        <v>23</v>
       </c>
       <c r="E21" s="99" t="inlineStr">
         <is>
@@ -2530,31 +2467,31 @@
       </c>
       <c r="F21" s="103" t="inlineStr"/>
       <c r="G21" s="103" t="inlineStr"/>
-      <c r="H21" s="105" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="I21" s="113" t="inlineStr">
-        <is>
-          <t>10.8</t>
+      <c r="H21" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I21" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="99" t="inlineStr">
         <is>
-          <t>2021-12-17 03:00 ven</t>
-        </is>
-      </c>
-      <c r="B22" s="101" t="n">
-        <v>8</v>
+          <t>2021-12-31 15:00 Fri</t>
+        </is>
+      </c>
+      <c r="B22" s="106" t="n">
+        <v>12</v>
       </c>
       <c r="C22" s="109" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="102" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22" s="99" t="inlineStr">
         <is>
@@ -2563,31 +2500,31 @@
       </c>
       <c r="F22" s="103" t="inlineStr"/>
       <c r="G22" s="103" t="inlineStr"/>
-      <c r="H22" s="111" t="inlineStr">
-        <is>
-          <t>80.2</t>
-        </is>
-      </c>
-      <c r="I22" s="105" t="inlineStr">
-        <is>
-          <t>49.5</t>
+      <c r="H22" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="99" t="inlineStr">
         <is>
-          <t>2021-12-17 06:00 ven</t>
+          <t>2021-12-31 18:00 Fri</t>
         </is>
       </c>
       <c r="B23" s="101" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23" s="109" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D23" s="102" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="99" t="inlineStr">
         <is>
@@ -2596,31 +2533,31 @@
       </c>
       <c r="F23" s="103" t="inlineStr"/>
       <c r="G23" s="103" t="inlineStr"/>
-      <c r="H23" s="105" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
-      <c r="I23" s="104" t="inlineStr">
-        <is>
-          <t>28</t>
+      <c r="H23" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="99" t="inlineStr">
         <is>
-          <t>2021-12-17 09:00 ven</t>
-        </is>
-      </c>
-      <c r="B24" s="106" t="n">
-        <v>11</v>
-      </c>
-      <c r="C24" s="102" t="n">
-        <v>58</v>
-      </c>
-      <c r="D24" s="107" t="n">
-        <v>22</v>
+          <t>2021-12-31 21:00 Fri</t>
+        </is>
+      </c>
+      <c r="B24" s="101" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" s="109" t="n">
+        <v>88</v>
+      </c>
+      <c r="D24" s="102" t="n">
+        <v>12</v>
       </c>
       <c r="E24" s="99" t="inlineStr">
         <is>
@@ -2629,31 +2566,31 @@
       </c>
       <c r="F24" s="103" t="inlineStr"/>
       <c r="G24" s="103" t="inlineStr"/>
-      <c r="H24" s="115" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I24" s="103" t="inlineStr">
-        <is>
-          <t>1.7</t>
+      <c r="H24" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="99" t="inlineStr">
         <is>
-          <t>2021-12-17 12:00 ven</t>
-        </is>
-      </c>
-      <c r="B25" s="106" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" s="102" t="n">
-        <v>56</v>
-      </c>
-      <c r="D25" s="107" t="n">
-        <v>25</v>
+          <t>2022-01-01 00:00 Sat</t>
+        </is>
+      </c>
+      <c r="B25" s="101" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="109" t="n">
+        <v>94</v>
+      </c>
+      <c r="D25" s="114" t="n">
+        <v>11</v>
       </c>
       <c r="E25" s="99" t="inlineStr">
         <is>
@@ -2662,31 +2599,31 @@
       </c>
       <c r="F25" s="103" t="inlineStr"/>
       <c r="G25" s="103" t="inlineStr"/>
-      <c r="H25" s="115" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="I25" s="103" t="inlineStr">
-        <is>
-          <t>0.8</t>
+      <c r="H25" s="103" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="I25" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="99" t="inlineStr">
         <is>
-          <t>2021-12-17 15:00 ven</t>
+          <t>2022-01-01 03:00 Sat</t>
         </is>
       </c>
       <c r="B26" s="101" t="n">
         <v>10</v>
       </c>
-      <c r="C26" s="106" t="n">
-        <v>67</v>
-      </c>
-      <c r="D26" s="107" t="n">
-        <v>20</v>
+      <c r="C26" s="109" t="n">
+        <v>96</v>
+      </c>
+      <c r="D26" s="102" t="n">
+        <v>12</v>
       </c>
       <c r="E26" s="99" t="inlineStr">
         <is>
@@ -2695,9 +2632,9 @@
       </c>
       <c r="F26" s="103" t="inlineStr"/>
       <c r="G26" s="103" t="inlineStr"/>
-      <c r="H26" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="H26" s="103" t="inlineStr">
+        <is>
+          <t>2.6</t>
         </is>
       </c>
       <c r="I26" s="99" t="inlineStr">
@@ -2709,17 +2646,17 @@
     <row r="27">
       <c r="A27" s="99" t="inlineStr">
         <is>
-          <t>2021-12-17 18:00 ven</t>
+          <t>2022-01-01 06:00 Sat</t>
         </is>
       </c>
       <c r="B27" s="101" t="n">
         <v>10</v>
       </c>
       <c r="C27" s="109" t="n">
-        <v>75</v>
-      </c>
-      <c r="D27" s="107" t="n">
-        <v>24</v>
+        <v>96</v>
+      </c>
+      <c r="D27" s="102" t="n">
+        <v>12</v>
       </c>
       <c r="E27" s="99" t="inlineStr">
         <is>
@@ -2730,29 +2667,29 @@
       <c r="G27" s="103" t="inlineStr"/>
       <c r="H27" s="103" t="inlineStr">
         <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="I27" s="99" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="I27" s="103" t="inlineStr">
+        <is>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="99" t="inlineStr">
         <is>
-          <t>2021-12-17 21:00 ven</t>
-        </is>
-      </c>
-      <c r="B28" s="101" t="n">
-        <v>10</v>
-      </c>
-      <c r="C28" s="106" t="n">
-        <v>62</v>
-      </c>
-      <c r="D28" s="110" t="n">
-        <v>29</v>
+          <t>2022-01-01 09:00 Sat</t>
+        </is>
+      </c>
+      <c r="B28" s="102" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" s="109" t="n">
+        <v>81</v>
+      </c>
+      <c r="D28" s="107" t="n">
+        <v>20</v>
       </c>
       <c r="E28" s="99" t="inlineStr">
         <is>
@@ -2761,31 +2698,31 @@
       </c>
       <c r="F28" s="103" t="inlineStr"/>
       <c r="G28" s="103" t="inlineStr"/>
-      <c r="H28" s="105" t="inlineStr">
-        <is>
-          <t>40.6</t>
-        </is>
-      </c>
-      <c r="I28" s="103" t="inlineStr">
-        <is>
-          <t>2.9</t>
+      <c r="H28" s="113" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I28" s="113" t="inlineStr">
+        <is>
+          <t>19.1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="99" t="inlineStr">
         <is>
-          <t>2021-12-18 00:00 sab</t>
-        </is>
-      </c>
-      <c r="B29" s="101" t="n">
-        <v>10</v>
-      </c>
-      <c r="C29" s="102" t="n">
-        <v>51</v>
-      </c>
-      <c r="D29" s="110" t="n">
-        <v>37</v>
+          <t>2022-01-01 12:00 Sat</t>
+        </is>
+      </c>
+      <c r="B29" s="102" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" s="109" t="n">
+        <v>71</v>
+      </c>
+      <c r="D29" s="107" t="n">
+        <v>26</v>
       </c>
       <c r="E29" s="99" t="inlineStr">
         <is>
@@ -2794,31 +2731,31 @@
       </c>
       <c r="F29" s="103" t="inlineStr"/>
       <c r="G29" s="103" t="inlineStr"/>
-      <c r="H29" s="113" t="inlineStr">
-        <is>
-          <t>20.3</t>
-        </is>
-      </c>
-      <c r="I29" s="103" t="inlineStr">
-        <is>
-          <t>2.3</t>
+      <c r="H29" s="115" t="inlineStr">
+        <is>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="I29" s="115" t="inlineStr">
+        <is>
+          <t>9.5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="99" t="inlineStr">
         <is>
-          <t>2021-12-18 03:00 sab</t>
-        </is>
-      </c>
-      <c r="B30" s="101" t="n">
-        <v>9</v>
-      </c>
-      <c r="C30" s="102" t="n">
-        <v>54</v>
+          <t>2022-01-01 15:00 Sat</t>
+        </is>
+      </c>
+      <c r="B30" s="106" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" s="109" t="n">
+        <v>87</v>
       </c>
       <c r="D30" s="107" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="99" t="inlineStr">
         <is>
@@ -2827,31 +2764,31 @@
       </c>
       <c r="F30" s="103" t="inlineStr"/>
       <c r="G30" s="103" t="inlineStr"/>
-      <c r="H30" s="103" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="I30" s="105" t="inlineStr">
-        <is>
-          <t>58.6</t>
+      <c r="H30" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="99" t="inlineStr">
         <is>
-          <t>2021-12-18 06:00 sab</t>
-        </is>
-      </c>
-      <c r="B31" s="101" t="n">
-        <v>9</v>
-      </c>
-      <c r="C31" s="102" t="n">
-        <v>41</v>
-      </c>
-      <c r="D31" s="110" t="n">
-        <v>35</v>
+          <t>2022-01-01 18:00 Sat</t>
+        </is>
+      </c>
+      <c r="B31" s="106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" s="109" t="n">
+        <v>91</v>
+      </c>
+      <c r="D31" s="102" t="n">
+        <v>15</v>
       </c>
       <c r="E31" s="99" t="inlineStr">
         <is>
@@ -2860,31 +2797,31 @@
       </c>
       <c r="F31" s="103" t="inlineStr"/>
       <c r="G31" s="103" t="inlineStr"/>
-      <c r="H31" s="103" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I31" s="108" t="inlineStr">
-        <is>
-          <t>62</t>
+      <c r="H31" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="99" t="inlineStr">
         <is>
-          <t>2021-12-18 09:00 sab</t>
-        </is>
-      </c>
-      <c r="B32" s="101" t="n">
-        <v>9</v>
-      </c>
-      <c r="C32" s="102" t="n">
-        <v>43</v>
-      </c>
-      <c r="D32" s="112" t="n">
-        <v>39</v>
+          <t>2022-01-01 21:00 Sat</t>
+        </is>
+      </c>
+      <c r="B32" s="106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C32" s="109" t="n">
+        <v>92</v>
+      </c>
+      <c r="D32" s="102" t="n">
+        <v>15</v>
       </c>
       <c r="E32" s="99" t="inlineStr">
         <is>
@@ -2893,9 +2830,9 @@
       </c>
       <c r="F32" s="103" t="inlineStr"/>
       <c r="G32" s="103" t="inlineStr"/>
-      <c r="H32" s="105" t="inlineStr">
-        <is>
-          <t>56.1</t>
+      <c r="H32" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" s="99" t="inlineStr">
@@ -2907,28 +2844,28 @@
     <row r="33">
       <c r="A33" s="99" t="inlineStr">
         <is>
-          <t>2021-12-18 12:00 sab</t>
-        </is>
-      </c>
-      <c r="B33" s="101" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="102" t="n">
-        <v>42</v>
-      </c>
-      <c r="D33" s="112" t="n">
-        <v>42</v>
+          <t>2022-01-02 00:00 Sun</t>
+        </is>
+      </c>
+      <c r="B33" s="106" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" s="109" t="n">
+        <v>91</v>
+      </c>
+      <c r="D33" s="107" t="n">
+        <v>20</v>
       </c>
       <c r="E33" s="99" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F33" s="106" t="inlineStr"/>
+      <c r="F33" s="103" t="inlineStr"/>
       <c r="G33" s="103" t="inlineStr"/>
-      <c r="H33" s="108" t="inlineStr">
-        <is>
-          <t>63</t>
+      <c r="H33" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I33" s="99" t="inlineStr">
@@ -2940,17 +2877,17 @@
     <row r="34">
       <c r="A34" s="99" t="inlineStr">
         <is>
-          <t>2021-12-18 15:00 sab</t>
-        </is>
-      </c>
-      <c r="B34" s="101" t="n">
-        <v>8</v>
-      </c>
-      <c r="C34" s="102" t="n">
-        <v>47</v>
-      </c>
-      <c r="D34" s="110" t="n">
-        <v>29</v>
+          <t>2022-01-02 03:00 Sun</t>
+        </is>
+      </c>
+      <c r="B34" s="106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" s="109" t="n">
+        <v>93</v>
+      </c>
+      <c r="D34" s="102" t="n">
+        <v>18</v>
       </c>
       <c r="E34" s="99" t="inlineStr">
         <is>
@@ -2959,9 +2896,9 @@
       </c>
       <c r="F34" s="103" t="inlineStr"/>
       <c r="G34" s="103" t="inlineStr"/>
-      <c r="H34" s="115" t="inlineStr">
-        <is>
-          <t>6</t>
+      <c r="H34" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I34" s="103" t="inlineStr">
@@ -2973,17 +2910,17 @@
     <row r="35">
       <c r="A35" s="99" t="inlineStr">
         <is>
-          <t>2021-12-18 18:00 sab</t>
-        </is>
-      </c>
-      <c r="B35" s="101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C35" s="102" t="n">
-        <v>47</v>
-      </c>
-      <c r="D35" s="112" t="n">
-        <v>39</v>
+          <t>2022-01-02 06:00 Sun</t>
+        </is>
+      </c>
+      <c r="B35" s="106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" s="109" t="n">
+        <v>93</v>
+      </c>
+      <c r="D35" s="107" t="n">
+        <v>20</v>
       </c>
       <c r="E35" s="99" t="inlineStr">
         <is>
@@ -2992,31 +2929,31 @@
       </c>
       <c r="F35" s="103" t="inlineStr"/>
       <c r="G35" s="103" t="inlineStr"/>
-      <c r="H35" s="105" t="inlineStr">
-        <is>
-          <t>45</t>
+      <c r="H35" s="113" t="inlineStr">
+        <is>
+          <t>11.8</t>
         </is>
       </c>
       <c r="I35" s="103" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="99" t="inlineStr">
         <is>
-          <t>2021-12-18 21:00 sab</t>
-        </is>
-      </c>
-      <c r="B36" s="101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C36" s="102" t="n">
-        <v>45</v>
-      </c>
-      <c r="D36" s="110" t="n">
-        <v>31</v>
+          <t>2022-01-02 09:00 Sun</t>
+        </is>
+      </c>
+      <c r="B36" s="102" t="n">
+        <v>14</v>
+      </c>
+      <c r="C36" s="109" t="n">
+        <v>81</v>
+      </c>
+      <c r="D36" s="107" t="n">
+        <v>25</v>
       </c>
       <c r="E36" s="99" t="inlineStr">
         <is>
@@ -3025,31 +2962,31 @@
       </c>
       <c r="F36" s="103" t="inlineStr"/>
       <c r="G36" s="103" t="inlineStr"/>
-      <c r="H36" s="105" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
-      <c r="I36" s="105" t="inlineStr">
-        <is>
-          <t>36</t>
+      <c r="H36" s="113" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I36" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="99" t="inlineStr">
         <is>
-          <t>2021-12-19 00:00 dom</t>
-        </is>
-      </c>
-      <c r="B37" s="101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C37" s="102" t="n">
-        <v>47</v>
-      </c>
-      <c r="D37" s="110" t="n">
-        <v>29</v>
+          <t>2022-01-02 12:00 Sun</t>
+        </is>
+      </c>
+      <c r="B37" s="102" t="n">
+        <v>15</v>
+      </c>
+      <c r="C37" s="109" t="n">
+        <v>72</v>
+      </c>
+      <c r="D37" s="107" t="n">
+        <v>24</v>
       </c>
       <c r="E37" s="99" t="inlineStr">
         <is>
@@ -3058,31 +2995,31 @@
       </c>
       <c r="F37" s="103" t="inlineStr"/>
       <c r="G37" s="103" t="inlineStr"/>
-      <c r="H37" s="104" t="inlineStr">
-        <is>
-          <t>23.8</t>
-        </is>
-      </c>
-      <c r="I37" s="105" t="inlineStr">
-        <is>
-          <t>32.3</t>
+      <c r="H37" s="113" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="I37" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="99" t="inlineStr">
         <is>
-          <t>2021-12-19 03:00 dom</t>
-        </is>
-      </c>
-      <c r="B38" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="C38" s="102" t="n">
-        <v>51</v>
-      </c>
-      <c r="D38" s="110" t="n">
-        <v>30</v>
+          <t>2022-01-02 15:00 Sun</t>
+        </is>
+      </c>
+      <c r="B38" s="106" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" s="109" t="n">
+        <v>84</v>
+      </c>
+      <c r="D38" s="102" t="n">
+        <v>16</v>
       </c>
       <c r="E38" s="99" t="inlineStr">
         <is>
@@ -3091,31 +3028,31 @@
       </c>
       <c r="F38" s="103" t="inlineStr"/>
       <c r="G38" s="103" t="inlineStr"/>
-      <c r="H38" s="103" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="I38" s="105" t="inlineStr">
-        <is>
-          <t>45.3</t>
+      <c r="H38" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I38" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="99" t="inlineStr">
         <is>
-          <t>2021-12-19 06:00 dom</t>
-        </is>
-      </c>
-      <c r="B39" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="C39" s="102" t="n">
-        <v>50</v>
-      </c>
-      <c r="D39" s="107" t="n">
-        <v>28</v>
+          <t>2022-01-02 18:00 Sun</t>
+        </is>
+      </c>
+      <c r="B39" s="106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C39" s="109" t="n">
+        <v>94</v>
+      </c>
+      <c r="D39" s="114" t="n">
+        <v>9</v>
       </c>
       <c r="E39" s="99" t="inlineStr">
         <is>
@@ -3124,31 +3061,31 @@
       </c>
       <c r="F39" s="103" t="inlineStr"/>
       <c r="G39" s="103" t="inlineStr"/>
-      <c r="H39" s="103" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="I39" s="104" t="inlineStr">
-        <is>
-          <t>23.5</t>
+      <c r="H39" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I39" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="99" t="inlineStr">
         <is>
-          <t>2021-12-19 09:00 dom</t>
+          <t>2022-01-02 21:00 Sun</t>
         </is>
       </c>
       <c r="B40" s="101" t="n">
-        <v>8</v>
-      </c>
-      <c r="C40" s="102" t="n">
-        <v>49</v>
-      </c>
-      <c r="D40" s="110" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C40" s="109" t="n">
+        <v>92</v>
+      </c>
+      <c r="D40" s="116" t="n">
+        <v>5</v>
       </c>
       <c r="E40" s="99" t="inlineStr">
         <is>
@@ -3157,9 +3094,9 @@
       </c>
       <c r="F40" s="103" t="inlineStr"/>
       <c r="G40" s="103" t="inlineStr"/>
-      <c r="H40" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H40" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I40" s="99" t="inlineStr">
@@ -3171,17 +3108,17 @@
     <row r="41">
       <c r="A41" s="99" t="inlineStr">
         <is>
-          <t>2021-12-19 12:00 dom</t>
+          <t>2022-01-03 00:00 Mon</t>
         </is>
       </c>
       <c r="B41" s="101" t="n">
-        <v>8</v>
-      </c>
-      <c r="C41" s="102" t="n">
-        <v>49</v>
-      </c>
-      <c r="D41" s="110" t="n">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="C41" s="109" t="n">
+        <v>89</v>
+      </c>
+      <c r="D41" s="103" t="n">
+        <v>1</v>
       </c>
       <c r="E41" s="99" t="inlineStr">
         <is>
@@ -3190,9 +3127,9 @@
       </c>
       <c r="F41" s="103" t="inlineStr"/>
       <c r="G41" s="103" t="inlineStr"/>
-      <c r="H41" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H41" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I41" s="99" t="inlineStr">
@@ -3204,17 +3141,17 @@
     <row r="42">
       <c r="A42" s="99" t="inlineStr">
         <is>
-          <t>2021-12-19 15:00 dom</t>
+          <t>2022-01-03 03:00 Mon</t>
         </is>
       </c>
       <c r="B42" s="101" t="n">
-        <v>7</v>
-      </c>
-      <c r="C42" s="102" t="n">
-        <v>50</v>
-      </c>
-      <c r="D42" s="110" t="n">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="C42" s="109" t="n">
+        <v>86</v>
+      </c>
+      <c r="D42" s="116" t="n">
+        <v>3</v>
       </c>
       <c r="E42" s="99" t="inlineStr">
         <is>
@@ -3223,9 +3160,9 @@
       </c>
       <c r="F42" s="103" t="inlineStr"/>
       <c r="G42" s="103" t="inlineStr"/>
-      <c r="H42" s="103" t="inlineStr">
-        <is>
-          <t>5</t>
+      <c r="H42" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I42" s="99" t="inlineStr">
@@ -3237,17 +3174,17 @@
     <row r="43">
       <c r="A43" s="99" t="inlineStr">
         <is>
-          <t>2021-12-19 18:00 dom</t>
+          <t>2022-01-03 06:00 Mon</t>
         </is>
       </c>
       <c r="B43" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="C43" s="102" t="n">
-        <v>49</v>
-      </c>
-      <c r="D43" s="107" t="n">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="C43" s="109" t="n">
+        <v>85</v>
+      </c>
+      <c r="D43" s="116" t="n">
+        <v>5</v>
       </c>
       <c r="E43" s="99" t="inlineStr">
         <is>
@@ -3256,9 +3193,9 @@
       </c>
       <c r="F43" s="103" t="inlineStr"/>
       <c r="G43" s="103" t="inlineStr"/>
-      <c r="H43" s="103" t="inlineStr">
-        <is>
-          <t>4.7</t>
+      <c r="H43" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I43" s="99" t="inlineStr">
@@ -3270,17 +3207,17 @@
     <row r="44">
       <c r="A44" s="99" t="inlineStr">
         <is>
-          <t>2021-12-19 21:00 dom</t>
-        </is>
-      </c>
-      <c r="B44" s="101" t="n">
-        <v>6</v>
-      </c>
-      <c r="C44" s="102" t="n">
-        <v>53</v>
-      </c>
-      <c r="D44" s="102" t="n">
-        <v>16</v>
+          <t>2022-01-03 09:00 Mon</t>
+        </is>
+      </c>
+      <c r="B44" s="106" t="n">
+        <v>13</v>
+      </c>
+      <c r="C44" s="109" t="n">
+        <v>73</v>
+      </c>
+      <c r="D44" s="116" t="n">
+        <v>3</v>
       </c>
       <c r="E44" s="99" t="inlineStr">
         <is>
@@ -3289,9 +3226,9 @@
       </c>
       <c r="F44" s="103" t="inlineStr"/>
       <c r="G44" s="103" t="inlineStr"/>
-      <c r="H44" s="103" t="inlineStr">
-        <is>
-          <t>3.9</t>
+      <c r="H44" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I44" s="99" t="inlineStr">
@@ -3303,17 +3240,17 @@
     <row r="45">
       <c r="A45" s="99" t="inlineStr">
         <is>
-          <t>2021-12-20 00:00 lun</t>
-        </is>
-      </c>
-      <c r="B45" s="101" t="n">
-        <v>6</v>
+          <t>2022-01-03 12:00 Mon</t>
+        </is>
+      </c>
+      <c r="B45" s="102" t="n">
+        <v>15</v>
       </c>
       <c r="C45" s="106" t="n">
-        <v>64</v>
-      </c>
-      <c r="D45" s="102" t="n">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="D45" s="114" t="n">
+        <v>8</v>
       </c>
       <c r="E45" s="99" t="inlineStr">
         <is>
@@ -3322,9 +3259,9 @@
       </c>
       <c r="F45" s="103" t="inlineStr"/>
       <c r="G45" s="103" t="inlineStr"/>
-      <c r="H45" s="103" t="inlineStr">
-        <is>
-          <t>4.5</t>
+      <c r="H45" s="99" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="I45" s="99" t="inlineStr">
@@ -3335,6 +3272,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>